--- a/YAML-CREATION/ALL-DDC/all-ddc.xlsx
+++ b/YAML-CREATION/ALL-DDC/all-ddc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bos-tools\KYOTO-W-BOS\YAML-CREATION\ALL-DDC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\YAML-CREATION\ALL-DDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADAF831-540C-4984-AE99-4A9F0A7108A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041A8D04-9B7F-40C2-B26D-850F05CFE64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5829" uniqueCount="1654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5185" uniqueCount="1654">
   <si>
     <t>dbo.section</t>
   </si>
@@ -6164,9 +6164,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A991" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6220,9 +6220,6 @@
       <c r="E2" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="F2" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -6240,9 +6237,6 @@
       <c r="E3" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="F3" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -6260,9 +6254,6 @@
       <c r="E4" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="F4" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -6280,9 +6271,6 @@
       <c r="E5" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="F5" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -6300,9 +6288,6 @@
       <c r="E6" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="F6" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -6424,9 +6409,6 @@
       <c r="E13" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="F13" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -6495,9 +6477,6 @@
       <c r="E17" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="F17" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -6515,9 +6494,6 @@
       <c r="E18" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="F18" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
@@ -6535,9 +6511,6 @@
       <c r="E19" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="F19" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -6555,9 +6528,6 @@
       <c r="E20" s="8" t="s">
         <v>782</v>
       </c>
-      <c r="F20" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
@@ -6575,9 +6545,6 @@
       <c r="E21" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="F21" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -6595,9 +6562,6 @@
       <c r="E22" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="F22" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -6615,9 +6579,6 @@
       <c r="E23" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="F23" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -6737,9 +6698,6 @@
       <c r="E30" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="F30" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
@@ -6808,9 +6766,6 @@
       <c r="E34" s="8" t="s">
         <v>793</v>
       </c>
-      <c r="F34" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
@@ -6828,9 +6783,6 @@
       <c r="E35" s="8" t="s">
         <v>794</v>
       </c>
-      <c r="F35" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
@@ -6899,9 +6851,6 @@
       <c r="E39" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="F39" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
@@ -6919,9 +6868,6 @@
       <c r="E40" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="F40" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
@@ -6939,9 +6885,6 @@
       <c r="E41" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="F41" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
@@ -6959,9 +6902,6 @@
       <c r="E42" s="8" t="s">
         <v>801</v>
       </c>
-      <c r="F42" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
@@ -6979,9 +6919,6 @@
       <c r="E43" s="8" t="s">
         <v>802</v>
       </c>
-      <c r="F43" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
@@ -7101,9 +7038,6 @@
       <c r="E50" s="8" t="s">
         <v>809</v>
       </c>
-      <c r="F50" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
@@ -7172,9 +7106,6 @@
       <c r="E54" s="8" t="s">
         <v>813</v>
       </c>
-      <c r="F54" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
@@ -7192,9 +7123,6 @@
       <c r="E55" s="8" t="s">
         <v>814</v>
       </c>
-      <c r="F55" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
@@ -7263,9 +7191,6 @@
       <c r="E59" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="F59" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
@@ -7283,9 +7208,6 @@
       <c r="E60" s="8" t="s">
         <v>819</v>
       </c>
-      <c r="F60" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
@@ -7303,9 +7225,6 @@
       <c r="E61" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="F61" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
@@ -7323,9 +7242,6 @@
       <c r="E62" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="F62" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
@@ -7343,9 +7259,6 @@
       <c r="E63" s="8" t="s">
         <v>822</v>
       </c>
-      <c r="F63" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
@@ -7465,9 +7378,6 @@
       <c r="E70" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="F70" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
@@ -7536,9 +7446,6 @@
       <c r="E74" s="8" t="s">
         <v>833</v>
       </c>
-      <c r="F74" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
@@ -7556,9 +7463,6 @@
       <c r="E75" s="8" t="s">
         <v>834</v>
       </c>
-      <c r="F75" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
@@ -7576,9 +7480,6 @@
       <c r="E76" s="8" t="s">
         <v>835</v>
       </c>
-      <c r="F76" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
@@ -7596,9 +7497,6 @@
       <c r="E77" s="8" t="s">
         <v>836</v>
       </c>
-      <c r="F77" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
@@ -7616,9 +7514,6 @@
       <c r="E78" s="8" t="s">
         <v>837</v>
       </c>
-      <c r="F78" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
@@ -7636,9 +7531,6 @@
       <c r="E79" s="8" t="s">
         <v>838</v>
       </c>
-      <c r="F79" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
@@ -7656,9 +7548,6 @@
       <c r="E80" s="8" t="s">
         <v>839</v>
       </c>
-      <c r="F80" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
@@ -7778,9 +7667,6 @@
       <c r="E87" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="F87" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
@@ -7849,9 +7735,6 @@
       <c r="E91" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="F91" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
@@ -7869,9 +7752,6 @@
       <c r="E92" s="8" t="s">
         <v>851</v>
       </c>
-      <c r="F92" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
@@ -7940,9 +7820,6 @@
       <c r="E96" s="8" t="s">
         <v>855</v>
       </c>
-      <c r="F96" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
@@ -7960,9 +7837,6 @@
       <c r="E97" s="8" t="s">
         <v>856</v>
       </c>
-      <c r="F97" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
@@ -7980,9 +7854,6 @@
       <c r="E98" s="8" t="s">
         <v>857</v>
       </c>
-      <c r="F98" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
@@ -8000,9 +7871,6 @@
       <c r="E99" s="8" t="s">
         <v>858</v>
       </c>
-      <c r="F99" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
@@ -8020,9 +7888,6 @@
       <c r="E100" s="8" t="s">
         <v>859</v>
       </c>
-      <c r="F100" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
@@ -8142,9 +8007,6 @@
       <c r="E107" s="8" t="s">
         <v>866</v>
       </c>
-      <c r="F107" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
@@ -8213,9 +8075,6 @@
       <c r="E111" s="8" t="s">
         <v>870</v>
       </c>
-      <c r="F111" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
@@ -8233,9 +8092,6 @@
       <c r="E112" s="8" t="s">
         <v>871</v>
       </c>
-      <c r="F112" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
@@ -8304,9 +8160,6 @@
       <c r="E116" s="8" t="s">
         <v>875</v>
       </c>
-      <c r="F116" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
@@ -8324,9 +8177,6 @@
       <c r="E117" s="8" t="s">
         <v>876</v>
       </c>
-      <c r="F117" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
@@ -8344,9 +8194,6 @@
       <c r="E118" s="8" t="s">
         <v>877</v>
       </c>
-      <c r="F118" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
@@ -8364,9 +8211,6 @@
       <c r="E119" s="8" t="s">
         <v>878</v>
       </c>
-      <c r="F119" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
@@ -8384,9 +8228,6 @@
       <c r="E120" s="8" t="s">
         <v>879</v>
       </c>
-      <c r="F120" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
@@ -8506,9 +8347,6 @@
       <c r="E127" s="8" t="s">
         <v>886</v>
       </c>
-      <c r="F127" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
@@ -8577,9 +8415,6 @@
       <c r="E131" s="8" t="s">
         <v>890</v>
       </c>
-      <c r="F131" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
@@ -8597,9 +8432,6 @@
       <c r="E132" s="8" t="s">
         <v>891</v>
       </c>
-      <c r="F132" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
@@ -8668,9 +8500,6 @@
       <c r="E136" s="8" t="s">
         <v>895</v>
       </c>
-      <c r="F136" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
@@ -8688,9 +8517,6 @@
       <c r="E137" s="8" t="s">
         <v>896</v>
       </c>
-      <c r="F137" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
@@ -8708,9 +8534,6 @@
       <c r="E138" s="8" t="s">
         <v>897</v>
       </c>
-      <c r="F138" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
@@ -8728,9 +8551,6 @@
       <c r="E139" s="8" t="s">
         <v>898</v>
       </c>
-      <c r="F139" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
@@ -8748,9 +8568,6 @@
       <c r="E140" s="8" t="s">
         <v>899</v>
       </c>
-      <c r="F140" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
@@ -8870,9 +8687,6 @@
       <c r="E147" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="F147" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
@@ -8941,9 +8755,6 @@
       <c r="E151" s="8" t="s">
         <v>910</v>
       </c>
-      <c r="F151" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
@@ -8961,9 +8772,6 @@
       <c r="E152" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="F152" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
@@ -9032,9 +8840,6 @@
       <c r="E156" s="8" t="s">
         <v>915</v>
       </c>
-      <c r="F156" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
@@ -9052,9 +8857,6 @@
       <c r="E157" s="8" t="s">
         <v>916</v>
       </c>
-      <c r="F157" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
@@ -9072,9 +8874,6 @@
       <c r="E158" s="8" t="s">
         <v>917</v>
       </c>
-      <c r="F158" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
@@ -9092,9 +8891,6 @@
       <c r="E159" s="8" t="s">
         <v>918</v>
       </c>
-      <c r="F159" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
@@ -9112,9 +8908,6 @@
       <c r="E160" s="8" t="s">
         <v>919</v>
       </c>
-      <c r="F160" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
@@ -9234,9 +9027,6 @@
       <c r="E167" s="8" t="s">
         <v>926</v>
       </c>
-      <c r="F167" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
@@ -9305,9 +9095,6 @@
       <c r="E171" s="8" t="s">
         <v>930</v>
       </c>
-      <c r="F171" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
@@ -9325,9 +9112,6 @@
       <c r="E172" s="8" t="s">
         <v>931</v>
       </c>
-      <c r="F172" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
@@ -9396,9 +9180,6 @@
       <c r="E176" s="8" t="s">
         <v>935</v>
       </c>
-      <c r="F176" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
@@ -9416,9 +9197,6 @@
       <c r="E177" s="8" t="s">
         <v>936</v>
       </c>
-      <c r="F177" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
@@ -9436,9 +9214,6 @@
       <c r="E178" s="8" t="s">
         <v>937</v>
       </c>
-      <c r="F178" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
@@ -9456,9 +9231,6 @@
       <c r="E179" s="8" t="s">
         <v>938</v>
       </c>
-      <c r="F179" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
@@ -9476,9 +9248,6 @@
       <c r="E180" s="8" t="s">
         <v>939</v>
       </c>
-      <c r="F180" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
@@ -9598,9 +9367,6 @@
       <c r="E187" s="8" t="s">
         <v>946</v>
       </c>
-      <c r="F187" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
@@ -9669,9 +9435,6 @@
       <c r="E191" s="8" t="s">
         <v>950</v>
       </c>
-      <c r="F191" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
@@ -9689,9 +9452,6 @@
       <c r="E192" s="8" t="s">
         <v>951</v>
       </c>
-      <c r="F192" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
@@ -9760,9 +9520,6 @@
       <c r="E196" s="8" t="s">
         <v>955</v>
       </c>
-      <c r="F196" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
@@ -9780,9 +9537,6 @@
       <c r="E197" s="8" t="s">
         <v>956</v>
       </c>
-      <c r="F197" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
@@ -9800,9 +9554,6 @@
       <c r="E198" s="8" t="s">
         <v>957</v>
       </c>
-      <c r="F198" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
@@ -9820,9 +9571,6 @@
       <c r="E199" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="F199" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
@@ -9840,9 +9588,6 @@
       <c r="E200" s="8" t="s">
         <v>959</v>
       </c>
-      <c r="F200" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
@@ -9962,9 +9707,6 @@
       <c r="E207" s="8" t="s">
         <v>966</v>
       </c>
-      <c r="F207" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
@@ -10033,9 +9775,6 @@
       <c r="E211" s="8" t="s">
         <v>970</v>
       </c>
-      <c r="F211" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
@@ -10053,9 +9792,6 @@
       <c r="E212" s="8" t="s">
         <v>971</v>
       </c>
-      <c r="F212" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
@@ -10124,9 +9860,6 @@
       <c r="E216" s="8" t="s">
         <v>975</v>
       </c>
-      <c r="F216" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
@@ -10144,9 +9877,6 @@
       <c r="E217" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="F217" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
@@ -10164,9 +9894,6 @@
       <c r="E218" s="8" t="s">
         <v>977</v>
       </c>
-      <c r="F218" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
@@ -10184,9 +9911,6 @@
       <c r="E219" s="8" t="s">
         <v>978</v>
       </c>
-      <c r="F219" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
@@ -10204,9 +9928,6 @@
       <c r="E220" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="F220" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
@@ -10326,9 +10047,6 @@
       <c r="E227" s="8" t="s">
         <v>986</v>
       </c>
-      <c r="F227" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
@@ -10397,9 +10115,6 @@
       <c r="E231" s="8" t="s">
         <v>990</v>
       </c>
-      <c r="F231" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
@@ -10417,9 +10132,6 @@
       <c r="E232" s="8" t="s">
         <v>991</v>
       </c>
-      <c r="F232" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
@@ -10490,9 +10202,6 @@
       <c r="E236" s="8" t="s">
         <v>995</v>
       </c>
-      <c r="F236" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
@@ -10510,9 +10219,6 @@
       <c r="E237" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="F237" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
@@ -10530,9 +10236,6 @@
       <c r="E238" s="8" t="s">
         <v>997</v>
       </c>
-      <c r="F238" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
@@ -10550,9 +10253,6 @@
       <c r="E239" s="8" t="s">
         <v>998</v>
       </c>
-      <c r="F239" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
@@ -10570,9 +10270,6 @@
       <c r="E240" s="8" t="s">
         <v>999</v>
       </c>
-      <c r="F240" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
@@ -10692,9 +10389,6 @@
       <c r="E247" s="8" t="s">
         <v>1006</v>
       </c>
-      <c r="F247" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
@@ -10763,9 +10457,6 @@
       <c r="E251" s="8" t="s">
         <v>1010</v>
       </c>
-      <c r="F251" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
@@ -10783,9 +10474,6 @@
       <c r="E252" s="8" t="s">
         <v>1011</v>
       </c>
-      <c r="F252" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
@@ -10854,9 +10542,6 @@
       <c r="E256" s="8" t="s">
         <v>1015</v>
       </c>
-      <c r="F256" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
@@ -10874,9 +10559,6 @@
       <c r="E257" s="8" t="s">
         <v>1016</v>
       </c>
-      <c r="F257" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
@@ -10894,9 +10576,6 @@
       <c r="E258" s="8" t="s">
         <v>1017</v>
       </c>
-      <c r="F258" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
@@ -10914,9 +10593,6 @@
       <c r="E259" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="F259" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
@@ -10934,9 +10610,6 @@
       <c r="E260" s="8" t="s">
         <v>1019</v>
       </c>
-      <c r="F260" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
@@ -11056,9 +10729,6 @@
       <c r="E267" s="8" t="s">
         <v>1026</v>
       </c>
-      <c r="F267" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
@@ -11127,9 +10797,6 @@
       <c r="E271" s="8" t="s">
         <v>1030</v>
       </c>
-      <c r="F271" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
@@ -11147,9 +10814,6 @@
       <c r="E272" s="8" t="s">
         <v>1031</v>
       </c>
-      <c r="F272" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
@@ -11218,9 +10882,6 @@
       <c r="E276" s="8" t="s">
         <v>1035</v>
       </c>
-      <c r="F276" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
@@ -11238,9 +10899,6 @@
       <c r="E277" s="8" t="s">
         <v>1036</v>
       </c>
-      <c r="F277" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
@@ -11258,9 +10916,6 @@
       <c r="E278" s="8" t="s">
         <v>1037</v>
       </c>
-      <c r="F278" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
@@ -11278,9 +10933,6 @@
       <c r="E279" s="8" t="s">
         <v>1038</v>
       </c>
-      <c r="F279" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
@@ -11298,9 +10950,6 @@
       <c r="E280" s="8" t="s">
         <v>1039</v>
       </c>
-      <c r="F280" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
@@ -11420,9 +11069,6 @@
       <c r="E287" s="8" t="s">
         <v>1046</v>
       </c>
-      <c r="F287" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
@@ -11491,9 +11137,6 @@
       <c r="E291" s="8" t="s">
         <v>1050</v>
       </c>
-      <c r="F291" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
@@ -11511,9 +11154,6 @@
       <c r="E292" s="8" t="s">
         <v>1051</v>
       </c>
-      <c r="F292" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
@@ -11582,9 +11222,6 @@
       <c r="E296" s="8" t="s">
         <v>1035</v>
       </c>
-      <c r="F296" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
@@ -11602,9 +11239,6 @@
       <c r="E297" s="8" t="s">
         <v>1036</v>
       </c>
-      <c r="F297" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
@@ -11622,9 +11256,6 @@
       <c r="E298" s="8" t="s">
         <v>1037</v>
       </c>
-      <c r="F298" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
@@ -11642,9 +11273,6 @@
       <c r="E299" s="8" t="s">
         <v>1038</v>
       </c>
-      <c r="F299" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
@@ -11662,9 +11290,6 @@
       <c r="E300" s="8" t="s">
         <v>1039</v>
       </c>
-      <c r="F300" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
@@ -11784,9 +11409,6 @@
       <c r="E307" s="8" t="s">
         <v>1046</v>
       </c>
-      <c r="F307" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
@@ -11855,9 +11477,6 @@
       <c r="E311" s="8" t="s">
         <v>1050</v>
       </c>
-      <c r="F311" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
@@ -11875,9 +11494,6 @@
       <c r="E312" s="8" t="s">
         <v>1051</v>
       </c>
-      <c r="F312" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
@@ -11946,9 +11562,6 @@
       <c r="E316" s="8" t="s">
         <v>1055</v>
       </c>
-      <c r="F316" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
@@ -11966,9 +11579,6 @@
       <c r="E317" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="F317" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
@@ -11986,9 +11596,6 @@
       <c r="E318" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="F318" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
@@ -12006,9 +11613,6 @@
       <c r="E319" s="8" t="s">
         <v>1058</v>
       </c>
-      <c r="F319" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
@@ -12026,9 +11630,6 @@
       <c r="E320" s="8" t="s">
         <v>1059</v>
       </c>
-      <c r="F320" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
@@ -12148,9 +11749,6 @@
       <c r="E327" s="8" t="s">
         <v>1066</v>
       </c>
-      <c r="F327" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
@@ -12219,9 +11817,6 @@
       <c r="E331" s="8" t="s">
         <v>1070</v>
       </c>
-      <c r="F331" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
@@ -12239,9 +11834,6 @@
       <c r="E332" s="8" t="s">
         <v>1071</v>
       </c>
-      <c r="F332" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
@@ -12259,9 +11851,6 @@
       <c r="E333" s="8" t="s">
         <v>1072</v>
       </c>
-      <c r="F333" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
@@ -12279,9 +11868,6 @@
       <c r="E334" s="8" t="s">
         <v>1073</v>
       </c>
-      <c r="F334" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
@@ -12299,9 +11885,6 @@
       <c r="E335" s="8" t="s">
         <v>1074</v>
       </c>
-      <c r="F335" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
@@ -12319,9 +11902,6 @@
       <c r="E336" s="8" t="s">
         <v>1075</v>
       </c>
-      <c r="F336" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
@@ -12339,9 +11919,6 @@
       <c r="E337" s="8" t="s">
         <v>1076</v>
       </c>
-      <c r="F337" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
@@ -12461,9 +12038,6 @@
       <c r="E344" s="8" t="s">
         <v>1083</v>
       </c>
-      <c r="F344" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
@@ -12532,9 +12106,6 @@
       <c r="E348" s="8" t="s">
         <v>1087</v>
       </c>
-      <c r="F348" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
@@ -12552,9 +12123,6 @@
       <c r="E349" s="8" t="s">
         <v>1088</v>
       </c>
-      <c r="F349" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
@@ -12623,9 +12191,6 @@
       <c r="E353" s="8" t="s">
         <v>1092</v>
       </c>
-      <c r="F353" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
@@ -12643,9 +12208,6 @@
       <c r="E354" s="8" t="s">
         <v>1093</v>
       </c>
-      <c r="F354" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
@@ -12663,9 +12225,6 @@
       <c r="E355" s="8" t="s">
         <v>1094</v>
       </c>
-      <c r="F355" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
@@ -12683,9 +12242,6 @@
       <c r="E356" s="8" t="s">
         <v>1095</v>
       </c>
-      <c r="F356" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
@@ -12703,9 +12259,6 @@
       <c r="E357" s="8" t="s">
         <v>1096</v>
       </c>
-      <c r="F357" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
@@ -12825,9 +12378,6 @@
       <c r="E364" s="8" t="s">
         <v>1103</v>
       </c>
-      <c r="F364" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
@@ -12896,9 +12446,6 @@
       <c r="E368" s="8" t="s">
         <v>1107</v>
       </c>
-      <c r="F368" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
@@ -12916,9 +12463,6 @@
       <c r="E369" s="8" t="s">
         <v>1108</v>
       </c>
-      <c r="F369" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
@@ -12936,9 +12480,6 @@
       <c r="E370" s="8" t="s">
         <v>1109</v>
       </c>
-      <c r="F370" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
@@ -12956,9 +12497,6 @@
       <c r="E371" s="8" t="s">
         <v>1110</v>
       </c>
-      <c r="F371" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
@@ -12976,9 +12514,6 @@
       <c r="E372" s="8" t="s">
         <v>1111</v>
       </c>
-      <c r="F372" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
@@ -12996,9 +12531,6 @@
       <c r="E373" s="8" t="s">
         <v>1112</v>
       </c>
-      <c r="F373" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
@@ -13016,9 +12548,6 @@
       <c r="E374" s="8" t="s">
         <v>1113</v>
       </c>
-      <c r="F374" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
@@ -13138,9 +12667,6 @@
       <c r="E381" s="8" t="s">
         <v>1120</v>
       </c>
-      <c r="F381" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
@@ -13209,9 +12735,6 @@
       <c r="E385" s="8" t="s">
         <v>1124</v>
       </c>
-      <c r="F385" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
@@ -13229,9 +12752,6 @@
       <c r="E386" s="8" t="s">
         <v>1125</v>
       </c>
-      <c r="F386" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
@@ -13300,9 +12820,6 @@
       <c r="E390" s="7" t="s">
         <v>1129</v>
       </c>
-      <c r="F390" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="391" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A391" s="13" t="s">
@@ -13320,9 +12837,6 @@
       <c r="E391" s="7" t="s">
         <v>1130</v>
       </c>
-      <c r="F391" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="392" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A392" s="13" t="s">
@@ -13340,9 +12854,6 @@
       <c r="E392" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="F392" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="393" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A393" s="13" t="s">
@@ -13360,9 +12871,6 @@
       <c r="E393" s="7" t="s">
         <v>1131</v>
       </c>
-      <c r="F393" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="394" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A394" s="13" t="s">
@@ -13380,9 +12888,6 @@
       <c r="E394" s="7" t="s">
         <v>1132</v>
       </c>
-      <c r="F394" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="395" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="13" t="s">
@@ -13400,9 +12905,6 @@
       <c r="E395" s="7" t="s">
         <v>1133</v>
       </c>
-      <c r="F395" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="396" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A396" s="13" t="s">
@@ -13420,9 +12922,6 @@
       <c r="E396" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="F396" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="397" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="13" t="s">
@@ -13440,9 +12939,6 @@
       <c r="E397" s="7" t="s">
         <v>1134</v>
       </c>
-      <c r="F397" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="398" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="13" t="s">
@@ -13460,9 +12956,6 @@
       <c r="E398" s="7" t="s">
         <v>1135</v>
       </c>
-      <c r="F398" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="399" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="13" t="s">
@@ -13480,9 +12973,6 @@
       <c r="E399" s="7" t="s">
         <v>1136</v>
       </c>
-      <c r="F399" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="400" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="13" t="s">
@@ -13500,11 +12990,8 @@
       <c r="E400" s="7" t="s">
         <v>1137</v>
       </c>
-      <c r="F400" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="401" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="13" t="s">
         <v>137</v>
       </c>
@@ -13520,11 +13007,8 @@
       <c r="E401" s="7" t="s">
         <v>1138</v>
       </c>
-      <c r="F401" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="402" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A402" s="13" t="s">
         <v>164</v>
       </c>
@@ -13540,11 +13024,8 @@
       <c r="E402" s="7" t="s">
         <v>1139</v>
       </c>
-      <c r="F402" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="403" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="13" t="s">
         <v>164</v>
       </c>
@@ -13560,11 +13041,8 @@
       <c r="E403" s="7" t="s">
         <v>1140</v>
       </c>
-      <c r="F403" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="404" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="13" t="s">
         <v>164</v>
       </c>
@@ -13580,11 +13058,8 @@
       <c r="E404" s="7" t="s">
         <v>1141</v>
       </c>
-      <c r="F404" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="405" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="13" t="s">
         <v>164</v>
       </c>
@@ -13600,11 +13075,8 @@
       <c r="E405" s="7" t="s">
         <v>1142</v>
       </c>
-      <c r="F405" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="13" t="s">
         <v>169</v>
       </c>
@@ -13620,11 +13092,8 @@
       <c r="E406" s="7" t="s">
         <v>1143</v>
       </c>
-      <c r="F406" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="407" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A407" s="13" t="s">
         <v>169</v>
       </c>
@@ -13640,11 +13109,8 @@
       <c r="E407" s="7" t="s">
         <v>1144</v>
       </c>
-      <c r="F407" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="408" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A408" s="13" t="s">
         <v>169</v>
       </c>
@@ -13660,11 +13126,8 @@
       <c r="E408" s="7" t="s">
         <v>1145</v>
       </c>
-      <c r="F408" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="409" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="13" t="s">
         <v>169</v>
       </c>
@@ -13680,11 +13143,8 @@
       <c r="E409" s="7" t="s">
         <v>1146</v>
       </c>
-      <c r="F409" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="410" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A410" s="13" t="s">
         <v>141</v>
       </c>
@@ -13700,11 +13160,8 @@
       <c r="E410" s="7" t="s">
         <v>1147</v>
       </c>
-      <c r="F410" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="411" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="13" t="s">
         <v>141</v>
       </c>
@@ -13720,11 +13177,8 @@
       <c r="E411" s="7" t="s">
         <v>1148</v>
       </c>
-      <c r="F411" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="412" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A412" s="13" t="s">
         <v>141</v>
       </c>
@@ -13740,11 +13194,8 @@
       <c r="E412" s="7" t="s">
         <v>1149</v>
       </c>
-      <c r="F412" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="413" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="413" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A413" s="13" t="s">
         <v>141</v>
       </c>
@@ -13760,11 +13211,8 @@
       <c r="E413" s="7" t="s">
         <v>1150</v>
       </c>
-      <c r="F413" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="414" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A414" s="13" t="s">
         <v>143</v>
       </c>
@@ -13780,11 +13228,8 @@
       <c r="E414" s="7" t="s">
         <v>1151</v>
       </c>
-      <c r="F414" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="415" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="13" t="s">
         <v>143</v>
       </c>
@@ -13800,11 +13245,8 @@
       <c r="E415" s="7" t="s">
         <v>1152</v>
       </c>
-      <c r="F415" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="416" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="416" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A416" s="13" t="s">
         <v>143</v>
       </c>
@@ -13820,11 +13262,8 @@
       <c r="E416" s="7" t="s">
         <v>1153</v>
       </c>
-      <c r="F416" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="417" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="13" t="s">
         <v>143</v>
       </c>
@@ -13840,11 +13279,8 @@
       <c r="E417" s="7" t="s">
         <v>1154</v>
       </c>
-      <c r="F417" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="13" t="s">
         <v>144</v>
       </c>
@@ -13860,11 +13296,8 @@
       <c r="E418" s="7" t="s">
         <v>1155</v>
       </c>
-      <c r="F418" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="419" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="419" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="13" t="s">
         <v>144</v>
       </c>
@@ -13880,11 +13313,8 @@
       <c r="E419" s="7" t="s">
         <v>1156</v>
       </c>
-      <c r="F419" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="420" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A420" s="13" t="s">
         <v>144</v>
       </c>
@@ -13900,11 +13330,8 @@
       <c r="E420" s="7" t="s">
         <v>1157</v>
       </c>
-      <c r="F420" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="421" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="421" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="13" t="s">
         <v>144</v>
       </c>
@@ -13920,11 +13347,8 @@
       <c r="E421" s="7" t="s">
         <v>1158</v>
       </c>
-      <c r="F421" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="422" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A422" s="13" t="s">
         <v>150</v>
       </c>
@@ -13940,11 +13364,8 @@
       <c r="E422" s="7" t="s">
         <v>1159</v>
       </c>
-      <c r="F422" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="423" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="13" t="s">
         <v>150</v>
       </c>
@@ -13960,11 +13381,8 @@
       <c r="E423" s="7" t="s">
         <v>1160</v>
       </c>
-      <c r="F423" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="424" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A424" s="13" t="s">
         <v>150</v>
       </c>
@@ -13980,11 +13398,8 @@
       <c r="E424" s="7" t="s">
         <v>1161</v>
       </c>
-      <c r="F424" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="425" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A425" s="13" t="s">
         <v>150</v>
       </c>
@@ -14000,11 +13415,8 @@
       <c r="E425" s="7" t="s">
         <v>1162</v>
       </c>
-      <c r="F425" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="426" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A426" s="13" t="s">
         <v>190</v>
       </c>
@@ -14020,11 +13432,8 @@
       <c r="E426" s="7" t="s">
         <v>1130</v>
       </c>
-      <c r="F426" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="427" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A427" s="13" t="s">
         <v>190</v>
       </c>
@@ -14040,11 +13449,8 @@
       <c r="E427" s="7" t="s">
         <v>1131</v>
       </c>
-      <c r="F427" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="428" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A428" s="13" t="s">
         <v>190</v>
       </c>
@@ -14060,11 +13466,8 @@
       <c r="E428" s="7" t="s">
         <v>1133</v>
       </c>
-      <c r="F428" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="429" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A429" s="13" t="s">
         <v>190</v>
       </c>
@@ -14080,11 +13483,8 @@
       <c r="E429" s="7" t="s">
         <v>1134</v>
       </c>
-      <c r="F429" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="430" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="430" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A430" s="13" t="s">
         <v>190</v>
       </c>
@@ -14100,11 +13500,8 @@
       <c r="E430" s="7" t="s">
         <v>1136</v>
       </c>
-      <c r="F430" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="431" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="431" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="13" t="s">
         <v>190</v>
       </c>
@@ -14120,11 +13517,8 @@
       <c r="E431" s="7" t="s">
         <v>1138</v>
       </c>
-      <c r="F431" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="432" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="432" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A432" s="13" t="s">
         <v>190</v>
       </c>
@@ -14140,11 +13534,8 @@
       <c r="E432" s="7" t="s">
         <v>1140</v>
       </c>
-      <c r="F432" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="433" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="433" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A433" s="13" t="s">
         <v>190</v>
       </c>
@@ -14160,11 +13551,8 @@
       <c r="E433" s="7" t="s">
         <v>1142</v>
       </c>
-      <c r="F433" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="434" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="434" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A434" s="13" t="s">
         <v>190</v>
       </c>
@@ -14180,11 +13568,8 @@
       <c r="E434" s="7" t="s">
         <v>1144</v>
       </c>
-      <c r="F434" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="435" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="435" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="13" t="s">
         <v>190</v>
       </c>
@@ -14200,11 +13585,8 @@
       <c r="E435" s="7" t="s">
         <v>1146</v>
       </c>
-      <c r="F435" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="436" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="436" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A436" s="13" t="s">
         <v>190</v>
       </c>
@@ -14220,11 +13602,8 @@
       <c r="E436" s="7" t="s">
         <v>1148</v>
       </c>
-      <c r="F436" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A437" s="13" t="s">
         <v>190</v>
       </c>
@@ -14240,11 +13619,8 @@
       <c r="E437" s="7" t="s">
         <v>1150</v>
       </c>
-      <c r="F437" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="438" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A438" s="13" t="s">
         <v>190</v>
       </c>
@@ -14260,11 +13636,8 @@
       <c r="E438" s="7" t="s">
         <v>1152</v>
       </c>
-      <c r="F438" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="439" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A439" s="13" t="s">
         <v>190</v>
       </c>
@@ -14280,11 +13653,8 @@
       <c r="E439" s="7" t="s">
         <v>1154</v>
       </c>
-      <c r="F439" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="440" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="440" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A440" s="13" t="s">
         <v>190</v>
       </c>
@@ -14300,11 +13670,8 @@
       <c r="E440" s="7" t="s">
         <v>1156</v>
       </c>
-      <c r="F440" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="441" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A441" s="13" t="s">
         <v>190</v>
       </c>
@@ -14320,11 +13687,8 @@
       <c r="E441" s="7" t="s">
         <v>1158</v>
       </c>
-      <c r="F441" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="442" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A442" s="13" t="s">
         <v>190</v>
       </c>
@@ -14340,11 +13704,8 @@
       <c r="E442" s="7" t="s">
         <v>1160</v>
       </c>
-      <c r="F442" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="443" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="443" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A443" s="13" t="s">
         <v>190</v>
       </c>
@@ -14360,11 +13721,8 @@
       <c r="E443" s="7" t="s">
         <v>1162</v>
       </c>
-      <c r="F443" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="444" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A444" s="13" t="s">
         <v>190</v>
       </c>
@@ -14380,11 +13738,8 @@
       <c r="E444" s="7" t="s">
         <v>1163</v>
       </c>
-      <c r="F444" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="445" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="445" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A445" s="13" t="s">
         <v>190</v>
       </c>
@@ -14400,11 +13755,8 @@
       <c r="E445" s="7" t="s">
         <v>1164</v>
       </c>
-      <c r="F445" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="446" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A446" s="13" t="s">
         <v>190</v>
       </c>
@@ -14420,11 +13772,8 @@
       <c r="E446" s="7" t="s">
         <v>1165</v>
       </c>
-      <c r="F446" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="447" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A447" s="13" t="s">
         <v>190</v>
       </c>
@@ -14440,11 +13789,8 @@
       <c r="E447" s="7" t="s">
         <v>1166</v>
       </c>
-      <c r="F447" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="448" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="448" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A448" s="13" t="s">
         <v>213</v>
       </c>
@@ -14460,11 +13806,8 @@
       <c r="E448" s="7" t="s">
         <v>1167</v>
       </c>
-      <c r="F448" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="449" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="13" t="s">
         <v>213</v>
       </c>
@@ -14480,11 +13823,8 @@
       <c r="E449" s="7" t="s">
         <v>1168</v>
       </c>
-      <c r="F449" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="450" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A450" s="13" t="s">
         <v>213</v>
       </c>
@@ -14500,11 +13840,8 @@
       <c r="E450" s="7" t="s">
         <v>1169</v>
       </c>
-      <c r="F450" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="451" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A451" s="13" t="s">
         <v>213</v>
       </c>
@@ -14520,11 +13857,8 @@
       <c r="E451" s="7" t="s">
         <v>1170</v>
       </c>
-      <c r="F451" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="452" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="452" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A452" s="13" t="s">
         <v>134</v>
       </c>
@@ -14540,11 +13874,8 @@
       <c r="E452" s="7" t="s">
         <v>1171</v>
       </c>
-      <c r="F452" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="453" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="453" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A453" s="13" t="s">
         <v>134</v>
       </c>
@@ -14560,11 +13891,8 @@
       <c r="E453" s="7" t="s">
         <v>1172</v>
       </c>
-      <c r="F453" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="454" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A454" s="13" t="s">
         <v>134</v>
       </c>
@@ -14580,11 +13908,8 @@
       <c r="E454" s="7" t="s">
         <v>1173</v>
       </c>
-      <c r="F454" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="455" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="455" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A455" s="13" t="s">
         <v>134</v>
       </c>
@@ -14600,11 +13925,8 @@
       <c r="E455" s="7" t="s">
         <v>1174</v>
       </c>
-      <c r="F455" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="456" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="456" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A456" s="13" t="s">
         <v>129</v>
       </c>
@@ -14620,11 +13942,8 @@
       <c r="E456" s="7" t="s">
         <v>1175</v>
       </c>
-      <c r="F456" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="457" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="457" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="13" t="s">
         <v>129</v>
       </c>
@@ -14640,11 +13959,8 @@
       <c r="E457" s="7" t="s">
         <v>1176</v>
       </c>
-      <c r="F457" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="458" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="458" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A458" s="13" t="s">
         <v>129</v>
       </c>
@@ -14660,11 +13976,8 @@
       <c r="E458" s="7" t="s">
         <v>1177</v>
       </c>
-      <c r="F458" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="459" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="459" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A459" s="13" t="s">
         <v>129</v>
       </c>
@@ -14680,11 +13993,8 @@
       <c r="E459" s="7" t="s">
         <v>1178</v>
       </c>
-      <c r="F459" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="460" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="460" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A460" s="13" t="s">
         <v>129</v>
       </c>
@@ -14700,11 +14010,8 @@
       <c r="E460" s="7" t="s">
         <v>1179</v>
       </c>
-      <c r="F460" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="461" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="461" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A461" s="13" t="s">
         <v>129</v>
       </c>
@@ -14720,11 +14027,8 @@
       <c r="E461" s="7" t="s">
         <v>1180</v>
       </c>
-      <c r="F461" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="462" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="462" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A462" s="13" t="s">
         <v>129</v>
       </c>
@@ -14740,11 +14044,8 @@
       <c r="E462" s="7" t="s">
         <v>1181</v>
       </c>
-      <c r="F462" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="463" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="463" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A463" s="13" t="s">
         <v>129</v>
       </c>
@@ -14760,11 +14061,8 @@
       <c r="E463" s="7" t="s">
         <v>1182</v>
       </c>
-      <c r="F463" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="464" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="464" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A464" s="13" t="s">
         <v>107</v>
       </c>
@@ -14780,11 +14078,8 @@
       <c r="E464" s="7" t="s">
         <v>1183</v>
       </c>
-      <c r="F464" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="465" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="465" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A465" s="13" t="s">
         <v>107</v>
       </c>
@@ -14800,11 +14095,8 @@
       <c r="E465" s="7" t="s">
         <v>1184</v>
       </c>
-      <c r="F465" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="466" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="466" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A466" s="13" t="s">
         <v>107</v>
       </c>
@@ -14820,11 +14112,8 @@
       <c r="E466" s="7" t="s">
         <v>1185</v>
       </c>
-      <c r="F466" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="467" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="467" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A467" s="13" t="s">
         <v>107</v>
       </c>
@@ -14840,11 +14129,8 @@
       <c r="E467" s="7" t="s">
         <v>1186</v>
       </c>
-      <c r="F467" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="468" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="468" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A468" s="13" t="s">
         <v>107</v>
       </c>
@@ -14860,11 +14146,8 @@
       <c r="E468" s="7" t="s">
         <v>1187</v>
       </c>
-      <c r="F468" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="469" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="469" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A469" s="13" t="s">
         <v>107</v>
       </c>
@@ -14880,11 +14163,8 @@
       <c r="E469" s="7" t="s">
         <v>1188</v>
       </c>
-      <c r="F469" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="470" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="470" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A470" s="13" t="s">
         <v>137</v>
       </c>
@@ -14900,11 +14180,8 @@
       <c r="E470" s="7" t="s">
         <v>1189</v>
       </c>
-      <c r="F470" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="471" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="471" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A471" s="13" t="s">
         <v>137</v>
       </c>
@@ -14920,11 +14197,8 @@
       <c r="E471" s="7" t="s">
         <v>1190</v>
       </c>
-      <c r="F471" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="472" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="472" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A472" s="13" t="s">
         <v>137</v>
       </c>
@@ -14940,11 +14214,8 @@
       <c r="E472" s="7" t="s">
         <v>1191</v>
       </c>
-      <c r="F472" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="473" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="473" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A473" s="13" t="s">
         <v>137</v>
       </c>
@@ -14960,11 +14231,8 @@
       <c r="E473" s="7" t="s">
         <v>1192</v>
       </c>
-      <c r="F473" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="474" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="474" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A474" s="13" t="s">
         <v>136</v>
       </c>
@@ -14980,11 +14248,8 @@
       <c r="E474" s="7" t="s">
         <v>1193</v>
       </c>
-      <c r="F474" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="475" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="475" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A475" s="13" t="s">
         <v>136</v>
       </c>
@@ -15000,11 +14265,8 @@
       <c r="E475" s="7" t="s">
         <v>1194</v>
       </c>
-      <c r="F475" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="476" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="476" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A476" s="13" t="s">
         <v>136</v>
       </c>
@@ -15020,11 +14282,8 @@
       <c r="E476" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="F476" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="477" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="477" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A477" s="13" t="s">
         <v>136</v>
       </c>
@@ -15040,11 +14299,8 @@
       <c r="E477" s="7" t="s">
         <v>1196</v>
       </c>
-      <c r="F477" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="478" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="478" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A478" s="13" t="s">
         <v>136</v>
       </c>
@@ -15060,11 +14316,8 @@
       <c r="E478" s="7" t="s">
         <v>1197</v>
       </c>
-      <c r="F478" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="479" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="479" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A479" s="13" t="s">
         <v>136</v>
       </c>
@@ -15080,11 +14333,8 @@
       <c r="E479" s="7" t="s">
         <v>1198</v>
       </c>
-      <c r="F479" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="480" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="480" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A480" s="13" t="s">
         <v>136</v>
       </c>
@@ -15100,11 +14350,8 @@
       <c r="E480" s="7" t="s">
         <v>1199</v>
       </c>
-      <c r="F480" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="481" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="481" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A481" s="13" t="s">
         <v>136</v>
       </c>
@@ -15120,11 +14367,8 @@
       <c r="E481" s="7" t="s">
         <v>1200</v>
       </c>
-      <c r="F481" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="482" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="482" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A482" s="13" t="s">
         <v>136</v>
       </c>
@@ -15140,11 +14384,8 @@
       <c r="E482" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="F482" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="483" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="483" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A483" s="13" t="s">
         <v>136</v>
       </c>
@@ -15160,11 +14401,8 @@
       <c r="E483" s="7" t="s">
         <v>1202</v>
       </c>
-      <c r="F483" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="484" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="484" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A484" s="13" t="s">
         <v>136</v>
       </c>
@@ -15180,11 +14418,8 @@
       <c r="E484" s="7" t="s">
         <v>1203</v>
       </c>
-      <c r="F484" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="485" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="485" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A485" s="13" t="s">
         <v>136</v>
       </c>
@@ -15200,11 +14435,8 @@
       <c r="E485" s="7" t="s">
         <v>1204</v>
       </c>
-      <c r="F485" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="486" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="486" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A486" s="13" t="s">
         <v>136</v>
       </c>
@@ -15220,11 +14452,8 @@
       <c r="E486" s="7" t="s">
         <v>1205</v>
       </c>
-      <c r="F486" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="487" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="487" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A487" s="13" t="s">
         <v>136</v>
       </c>
@@ -15240,11 +14469,8 @@
       <c r="E487" s="7" t="s">
         <v>1206</v>
       </c>
-      <c r="F487" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="488" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="488" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A488" s="13" t="s">
         <v>136</v>
       </c>
@@ -15260,11 +14486,8 @@
       <c r="E488" s="7" t="s">
         <v>1207</v>
       </c>
-      <c r="F488" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="489" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="489" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A489" s="13" t="s">
         <v>136</v>
       </c>
@@ -15280,11 +14503,8 @@
       <c r="E489" s="7" t="s">
         <v>1208</v>
       </c>
-      <c r="F489" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="490" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="490" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A490" s="13" t="s">
         <v>136</v>
       </c>
@@ -15300,11 +14520,8 @@
       <c r="E490" s="7" t="s">
         <v>1209</v>
       </c>
-      <c r="F490" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="491" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="491" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A491" s="13" t="s">
         <v>136</v>
       </c>
@@ -15320,11 +14537,8 @@
       <c r="E491" s="7" t="s">
         <v>1210</v>
       </c>
-      <c r="F491" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="492" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="492" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A492" s="13" t="s">
         <v>136</v>
       </c>
@@ -15340,11 +14554,8 @@
       <c r="E492" s="7" t="s">
         <v>1211</v>
       </c>
-      <c r="F492" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="493" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="493" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A493" s="13" t="s">
         <v>136</v>
       </c>
@@ -15360,11 +14571,8 @@
       <c r="E493" s="7" t="s">
         <v>1212</v>
       </c>
-      <c r="F493" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="494" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="494" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A494" s="13" t="s">
         <v>136</v>
       </c>
@@ -15380,11 +14588,8 @@
       <c r="E494" s="7" t="s">
         <v>1213</v>
       </c>
-      <c r="F494" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="495" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="495" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A495" s="13" t="s">
         <v>136</v>
       </c>
@@ -15400,11 +14605,8 @@
       <c r="E495" s="7" t="s">
         <v>1214</v>
       </c>
-      <c r="F495" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="496" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="496" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A496" s="13" t="s">
         <v>136</v>
       </c>
@@ -15420,11 +14622,8 @@
       <c r="E496" s="7" t="s">
         <v>1215</v>
       </c>
-      <c r="F496" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="497" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="497" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A497" s="13" t="s">
         <v>136</v>
       </c>
@@ -15440,11 +14639,8 @@
       <c r="E497" s="7" t="s">
         <v>1216</v>
       </c>
-      <c r="F497" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="498" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="498" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A498" s="13" t="s">
         <v>136</v>
       </c>
@@ -15460,11 +14656,8 @@
       <c r="E498" s="7" t="s">
         <v>1217</v>
       </c>
-      <c r="F498" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="499" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="499" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A499" s="13" t="s">
         <v>136</v>
       </c>
@@ -15480,11 +14673,8 @@
       <c r="E499" s="7" t="s">
         <v>1218</v>
       </c>
-      <c r="F499" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="500" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="500" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A500" s="13" t="s">
         <v>136</v>
       </c>
@@ -15500,11 +14690,8 @@
       <c r="E500" s="7" t="s">
         <v>1219</v>
       </c>
-      <c r="F500" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="501" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="501" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A501" s="13" t="s">
         <v>136</v>
       </c>
@@ -15520,11 +14707,8 @@
       <c r="E501" s="7" t="s">
         <v>1220</v>
       </c>
-      <c r="F501" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="502" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="502" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A502" s="13" t="s">
         <v>136</v>
       </c>
@@ -15540,11 +14724,8 @@
       <c r="E502" s="7" t="s">
         <v>1221</v>
       </c>
-      <c r="F502" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="503" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="503" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A503" s="13" t="s">
         <v>136</v>
       </c>
@@ -15560,11 +14741,8 @@
       <c r="E503" s="7" t="s">
         <v>1222</v>
       </c>
-      <c r="F503" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="504" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="504" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A504" s="13" t="s">
         <v>136</v>
       </c>
@@ -15580,11 +14758,8 @@
       <c r="E504" s="7" t="s">
         <v>1223</v>
       </c>
-      <c r="F504" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="505" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="505" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A505" s="13" t="s">
         <v>136</v>
       </c>
@@ -15600,11 +14775,8 @@
       <c r="E505" s="7" t="s">
         <v>1224</v>
       </c>
-      <c r="F505" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="506" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="506" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A506" s="13" t="s">
         <v>136</v>
       </c>
@@ -15620,11 +14792,8 @@
       <c r="E506" s="7" t="s">
         <v>1225</v>
       </c>
-      <c r="F506" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="507" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="507" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A507" s="13" t="s">
         <v>136</v>
       </c>
@@ -15640,11 +14809,8 @@
       <c r="E507" s="7" t="s">
         <v>1226</v>
       </c>
-      <c r="F507" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="508" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="508" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A508" s="13" t="s">
         <v>136</v>
       </c>
@@ -15660,11 +14826,8 @@
       <c r="E508" s="7" t="s">
         <v>1227</v>
       </c>
-      <c r="F508" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="509" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="509" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A509" s="13" t="s">
         <v>136</v>
       </c>
@@ -15680,11 +14843,8 @@
       <c r="E509" s="7" t="s">
         <v>1228</v>
       </c>
-      <c r="F509" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="510" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="510" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A510" s="13" t="s">
         <v>136</v>
       </c>
@@ -15700,11 +14860,8 @@
       <c r="E510" s="7" t="s">
         <v>1229</v>
       </c>
-      <c r="F510" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="511" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="511" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A511" s="13" t="s">
         <v>136</v>
       </c>
@@ -15720,11 +14877,8 @@
       <c r="E511" s="7" t="s">
         <v>1230</v>
       </c>
-      <c r="F511" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="512" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="512" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A512" s="13" t="s">
         <v>136</v>
       </c>
@@ -15740,11 +14894,8 @@
       <c r="E512" s="7" t="s">
         <v>1231</v>
       </c>
-      <c r="F512" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="513" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="513" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A513" s="13" t="s">
         <v>136</v>
       </c>
@@ -15760,11 +14911,8 @@
       <c r="E513" s="7" t="s">
         <v>1232</v>
       </c>
-      <c r="F513" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="s">
         <v>139</v>
       </c>
@@ -15780,11 +14928,8 @@
       <c r="E514" s="7" t="s">
         <v>1233</v>
       </c>
-      <c r="F514" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
         <v>139</v>
       </c>
@@ -15800,11 +14945,8 @@
       <c r="E515" s="7" t="s">
         <v>1234</v>
       </c>
-      <c r="F515" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" s="2" t="s">
         <v>169</v>
       </c>
@@ -15820,11 +14962,8 @@
       <c r="E516" s="7" t="s">
         <v>1235</v>
       </c>
-      <c r="F516" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="517" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="517" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A517" s="13" t="s">
         <v>169</v>
       </c>
@@ -15840,11 +14979,8 @@
       <c r="E517" s="7" t="s">
         <v>1236</v>
       </c>
-      <c r="F517" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="518" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="518" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A518" s="13" t="s">
         <v>169</v>
       </c>
@@ -15860,11 +14996,8 @@
       <c r="E518" s="7" t="s">
         <v>1237</v>
       </c>
-      <c r="F518" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="519" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="519" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A519" s="13" t="s">
         <v>169</v>
       </c>
@@ -15880,11 +15013,8 @@
       <c r="E519" s="7" t="s">
         <v>1238</v>
       </c>
-      <c r="F519" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="520" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="520" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A520" s="13" t="s">
         <v>169</v>
       </c>
@@ -15900,11 +15030,8 @@
       <c r="E520" s="7" t="s">
         <v>1239</v>
       </c>
-      <c r="F520" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="521" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="521" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A521" s="13" t="s">
         <v>169</v>
       </c>
@@ -15920,11 +15047,8 @@
       <c r="E521" s="7" t="s">
         <v>1240</v>
       </c>
-      <c r="F521" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="522" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="522" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A522" s="13" t="s">
         <v>169</v>
       </c>
@@ -15940,11 +15064,8 @@
       <c r="E522" s="7" t="s">
         <v>1241</v>
       </c>
-      <c r="F522" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="523" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="523" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A523" s="13" t="s">
         <v>169</v>
       </c>
@@ -15960,11 +15081,8 @@
       <c r="E523" s="7" t="s">
         <v>1242</v>
       </c>
-      <c r="F523" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="524" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="524" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A524" s="13" t="s">
         <v>169</v>
       </c>
@@ -15980,11 +15098,8 @@
       <c r="E524" s="7" t="s">
         <v>1243</v>
       </c>
-      <c r="F524" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="525" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="525" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A525" s="13" t="s">
         <v>169</v>
       </c>
@@ -16000,11 +15115,8 @@
       <c r="E525" s="7" t="s">
         <v>1244</v>
       </c>
-      <c r="F525" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="526" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="526" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A526" s="13" t="s">
         <v>169</v>
       </c>
@@ -16020,11 +15132,8 @@
       <c r="E526" s="7" t="s">
         <v>1245</v>
       </c>
-      <c r="F526" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="527" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="527" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A527" s="13" t="s">
         <v>169</v>
       </c>
@@ -16040,11 +15149,8 @@
       <c r="E527" s="7" t="s">
         <v>1246</v>
       </c>
-      <c r="F527" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="528" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="528" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A528" s="13" t="s">
         <v>169</v>
       </c>
@@ -16060,11 +15166,8 @@
       <c r="E528" s="7" t="s">
         <v>1247</v>
       </c>
-      <c r="F528" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="529" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="529" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A529" s="13" t="s">
         <v>169</v>
       </c>
@@ -16080,11 +15183,8 @@
       <c r="E529" s="7" t="s">
         <v>1248</v>
       </c>
-      <c r="F529" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="530" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="530" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A530" s="13" t="s">
         <v>169</v>
       </c>
@@ -16100,11 +15200,8 @@
       <c r="E530" s="7" t="s">
         <v>1249</v>
       </c>
-      <c r="F530" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="531" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="531" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A531" s="13" t="s">
         <v>169</v>
       </c>
@@ -16120,11 +15217,8 @@
       <c r="E531" s="7" t="s">
         <v>1250</v>
       </c>
-      <c r="F531" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="532" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="532" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A532" s="13" t="s">
         <v>169</v>
       </c>
@@ -16140,11 +15234,8 @@
       <c r="E532" s="7" t="s">
         <v>1251</v>
       </c>
-      <c r="F532" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="533" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="533" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A533" s="13" t="s">
         <v>169</v>
       </c>
@@ -16160,11 +15251,8 @@
       <c r="E533" s="7" t="s">
         <v>1252</v>
       </c>
-      <c r="F533" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="534" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="534" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A534" s="13" t="s">
         <v>169</v>
       </c>
@@ -16180,11 +15268,8 @@
       <c r="E534" s="7" t="s">
         <v>1253</v>
       </c>
-      <c r="F534" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="535" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="535" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A535" s="13" t="s">
         <v>169</v>
       </c>
@@ -16200,11 +15285,8 @@
       <c r="E535" s="7" t="s">
         <v>1254</v>
       </c>
-      <c r="F535" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="536" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="536" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A536" s="13" t="s">
         <v>169</v>
       </c>
@@ -16220,11 +15302,8 @@
       <c r="E536" s="7" t="s">
         <v>1255</v>
       </c>
-      <c r="F536" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="537" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="537" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A537" s="13" t="s">
         <v>169</v>
       </c>
@@ -16240,11 +15319,8 @@
       <c r="E537" s="7" t="s">
         <v>1256</v>
       </c>
-      <c r="F537" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="538" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="538" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A538" s="13" t="s">
         <v>169</v>
       </c>
@@ -16260,11 +15336,8 @@
       <c r="E538" s="7" t="s">
         <v>1257</v>
       </c>
-      <c r="F538" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="539" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="539" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A539" s="13" t="s">
         <v>169</v>
       </c>
@@ -16280,11 +15353,8 @@
       <c r="E539" s="7" t="s">
         <v>1258</v>
       </c>
-      <c r="F539" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="540" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="540" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A540" s="13" t="s">
         <v>169</v>
       </c>
@@ -16300,11 +15370,8 @@
       <c r="E540" s="7" t="s">
         <v>1259</v>
       </c>
-      <c r="F540" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="541" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="541" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A541" s="13" t="s">
         <v>169</v>
       </c>
@@ -16320,11 +15387,8 @@
       <c r="E541" s="7" t="s">
         <v>1260</v>
       </c>
-      <c r="F541" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="542" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="542" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A542" s="13" t="s">
         <v>169</v>
       </c>
@@ -16340,11 +15404,8 @@
       <c r="E542" s="7" t="s">
         <v>1261</v>
       </c>
-      <c r="F542" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="543" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="543" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A543" s="13" t="s">
         <v>169</v>
       </c>
@@ -16360,11 +15421,8 @@
       <c r="E543" s="7" t="s">
         <v>1262</v>
       </c>
-      <c r="F543" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="544" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="544" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A544" s="13" t="s">
         <v>169</v>
       </c>
@@ -16380,11 +15438,8 @@
       <c r="E544" s="7" t="s">
         <v>1263</v>
       </c>
-      <c r="F544" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="545" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="545" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A545" s="13" t="s">
         <v>169</v>
       </c>
@@ -16400,11 +15455,8 @@
       <c r="E545" s="7" t="s">
         <v>1264</v>
       </c>
-      <c r="F545" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="546" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="546" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A546" s="13" t="s">
         <v>169</v>
       </c>
@@ -16420,11 +15472,8 @@
       <c r="E546" s="7" t="s">
         <v>1265</v>
       </c>
-      <c r="F546" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="547" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="547" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A547" s="13" t="s">
         <v>169</v>
       </c>
@@ -16440,11 +15489,8 @@
       <c r="E547" s="7" t="s">
         <v>1266</v>
       </c>
-      <c r="F547" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="548" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="548" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A548" s="13" t="s">
         <v>169</v>
       </c>
@@ -16460,11 +15506,8 @@
       <c r="E548" s="7" t="s">
         <v>1267</v>
       </c>
-      <c r="F548" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="549" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="549" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A549" s="13" t="s">
         <v>169</v>
       </c>
@@ -16480,11 +15523,8 @@
       <c r="E549" s="7" t="s">
         <v>1268</v>
       </c>
-      <c r="F549" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="550" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="550" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A550" s="13" t="s">
         <v>169</v>
       </c>
@@ -16500,11 +15540,8 @@
       <c r="E550" s="7" t="s">
         <v>1269</v>
       </c>
-      <c r="F550" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="551" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="551" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A551" s="13" t="s">
         <v>169</v>
       </c>
@@ -16520,11 +15557,8 @@
       <c r="E551" s="7" t="s">
         <v>1270</v>
       </c>
-      <c r="F551" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="552" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="552" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A552" s="13" t="s">
         <v>169</v>
       </c>
@@ -16540,11 +15574,8 @@
       <c r="E552" s="7" t="s">
         <v>1271</v>
       </c>
-      <c r="F552" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="553" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="553" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A553" s="13" t="s">
         <v>169</v>
       </c>
@@ -16560,11 +15591,8 @@
       <c r="E553" s="7" t="s">
         <v>1272</v>
       </c>
-      <c r="F553" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="554" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="554" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A554" s="13" t="s">
         <v>169</v>
       </c>
@@ -16580,11 +15608,8 @@
       <c r="E554" s="7" t="s">
         <v>1273</v>
       </c>
-      <c r="F554" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="555" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="555" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A555" s="13" t="s">
         <v>169</v>
       </c>
@@ -16600,11 +15625,8 @@
       <c r="E555" s="7" t="s">
         <v>1274</v>
       </c>
-      <c r="F555" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="556" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="556" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A556" s="13" t="s">
         <v>169</v>
       </c>
@@ -16620,11 +15642,8 @@
       <c r="E556" s="7" t="s">
         <v>1275</v>
       </c>
-      <c r="F556" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="557" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="557" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A557" s="13" t="s">
         <v>169</v>
       </c>
@@ -16640,11 +15659,8 @@
       <c r="E557" s="7" t="s">
         <v>1276</v>
       </c>
-      <c r="F557" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="558" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="558" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A558" s="13" t="s">
         <v>169</v>
       </c>
@@ -16660,11 +15676,8 @@
       <c r="E558" s="7" t="s">
         <v>1277</v>
       </c>
-      <c r="F558" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="559" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="559" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A559" s="13" t="s">
         <v>169</v>
       </c>
@@ -16680,11 +15693,8 @@
       <c r="E559" s="7" t="s">
         <v>1278</v>
       </c>
-      <c r="F559" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="560" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="560" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A560" s="13" t="s">
         <v>169</v>
       </c>
@@ -16700,11 +15710,8 @@
       <c r="E560" s="7" t="s">
         <v>1279</v>
       </c>
-      <c r="F560" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="561" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="561" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A561" s="13" t="s">
         <v>169</v>
       </c>
@@ -16720,11 +15727,8 @@
       <c r="E561" s="7" t="s">
         <v>1280</v>
       </c>
-      <c r="F561" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="562" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="562" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A562" s="13" t="s">
         <v>169</v>
       </c>
@@ -16740,11 +15744,8 @@
       <c r="E562" s="7" t="s">
         <v>1281</v>
       </c>
-      <c r="F562" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="563" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="563" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A563" s="13" t="s">
         <v>169</v>
       </c>
@@ -16760,11 +15761,8 @@
       <c r="E563" s="7" t="s">
         <v>1282</v>
       </c>
-      <c r="F563" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="564" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="564" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A564" s="13" t="s">
         <v>169</v>
       </c>
@@ -16780,11 +15778,8 @@
       <c r="E564" s="7" t="s">
         <v>1283</v>
       </c>
-      <c r="F564" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="565" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="565" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A565" s="13" t="s">
         <v>169</v>
       </c>
@@ -16800,11 +15795,8 @@
       <c r="E565" s="7" t="s">
         <v>1284</v>
       </c>
-      <c r="F565" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="566" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="566" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A566" s="13" t="s">
         <v>169</v>
       </c>
@@ -16820,11 +15812,8 @@
       <c r="E566" s="7" t="s">
         <v>1285</v>
       </c>
-      <c r="F566" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="567" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="567" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A567" s="13" t="s">
         <v>169</v>
       </c>
@@ -16840,11 +15829,8 @@
       <c r="E567" s="7" t="s">
         <v>1286</v>
       </c>
-      <c r="F567" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="568" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="568" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A568" s="13" t="s">
         <v>169</v>
       </c>
@@ -16860,11 +15846,8 @@
       <c r="E568" s="7" t="s">
         <v>1287</v>
       </c>
-      <c r="F568" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="569" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="569" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A569" s="13" t="s">
         <v>169</v>
       </c>
@@ -16880,11 +15863,8 @@
       <c r="E569" s="7" t="s">
         <v>1288</v>
       </c>
-      <c r="F569" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="570" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="570" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A570" s="13" t="s">
         <v>169</v>
       </c>
@@ -16900,11 +15880,8 @@
       <c r="E570" s="7" t="s">
         <v>1289</v>
       </c>
-      <c r="F570" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="571" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="571" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A571" s="13" t="s">
         <v>169</v>
       </c>
@@ -16920,11 +15897,8 @@
       <c r="E571" s="7" t="s">
         <v>1290</v>
       </c>
-      <c r="F571" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="572" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="572" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A572" s="13" t="s">
         <v>139</v>
       </c>
@@ -16940,11 +15914,8 @@
       <c r="E572" s="7" t="s">
         <v>1291</v>
       </c>
-      <c r="F572" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="573" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="573" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A573" s="13" t="s">
         <v>139</v>
       </c>
@@ -16960,11 +15931,8 @@
       <c r="E573" s="7" t="s">
         <v>1292</v>
       </c>
-      <c r="F573" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="574" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="574" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A574" s="13" t="s">
         <v>139</v>
       </c>
@@ -16980,11 +15948,8 @@
       <c r="E574" s="7" t="s">
         <v>1293</v>
       </c>
-      <c r="F574" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="575" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="575" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A575" s="13" t="s">
         <v>139</v>
       </c>
@@ -17000,11 +15965,8 @@
       <c r="E575" s="7" t="s">
         <v>1294</v>
       </c>
-      <c r="F575" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="576" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="576" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A576" s="13" t="s">
         <v>139</v>
       </c>
@@ -17020,11 +15982,8 @@
       <c r="E576" s="7" t="s">
         <v>1295</v>
       </c>
-      <c r="F576" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="577" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="577" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A577" s="13" t="s">
         <v>139</v>
       </c>
@@ -17040,11 +15999,8 @@
       <c r="E577" s="7" t="s">
         <v>1296</v>
       </c>
-      <c r="F577" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="578" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="578" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A578" s="13" t="s">
         <v>139</v>
       </c>
@@ -17060,11 +16016,8 @@
       <c r="E578" s="7" t="s">
         <v>1297</v>
       </c>
-      <c r="F578" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="579" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="579" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A579" s="13" t="s">
         <v>139</v>
       </c>
@@ -17080,11 +16033,8 @@
       <c r="E579" s="7" t="s">
         <v>1298</v>
       </c>
-      <c r="F579" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="580" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="580" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A580" s="13" t="s">
         <v>139</v>
       </c>
@@ -17100,11 +16050,8 @@
       <c r="E580" s="7" t="s">
         <v>1299</v>
       </c>
-      <c r="F580" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="581" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="581" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A581" s="13" t="s">
         <v>139</v>
       </c>
@@ -17120,11 +16067,8 @@
       <c r="E581" s="7" t="s">
         <v>1300</v>
       </c>
-      <c r="F581" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="582" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="582" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A582" s="13" t="s">
         <v>139</v>
       </c>
@@ -17140,11 +16084,8 @@
       <c r="E582" s="7" t="s">
         <v>1301</v>
       </c>
-      <c r="F582" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="583" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="583" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A583" s="13" t="s">
         <v>139</v>
       </c>
@@ -17160,11 +16101,8 @@
       <c r="E583" s="7" t="s">
         <v>1302</v>
       </c>
-      <c r="F583" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="584" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="584" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A584" s="13" t="s">
         <v>139</v>
       </c>
@@ -17180,11 +16118,8 @@
       <c r="E584" s="7" t="s">
         <v>1303</v>
       </c>
-      <c r="F584" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="585" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="585" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A585" s="13" t="s">
         <v>139</v>
       </c>
@@ -17200,11 +16135,8 @@
       <c r="E585" s="7" t="s">
         <v>1304</v>
       </c>
-      <c r="F585" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="586" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="586" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A586" s="13" t="s">
         <v>139</v>
       </c>
@@ -17220,11 +16152,8 @@
       <c r="E586" s="7" t="s">
         <v>1305</v>
       </c>
-      <c r="F586" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="587" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="587" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A587" s="13" t="s">
         <v>139</v>
       </c>
@@ -17240,11 +16169,8 @@
       <c r="E587" s="7" t="s">
         <v>1306</v>
       </c>
-      <c r="F587" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="588" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="588" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A588" s="13" t="s">
         <v>139</v>
       </c>
@@ -17260,11 +16186,8 @@
       <c r="E588" s="7" t="s">
         <v>1307</v>
       </c>
-      <c r="F588" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="589" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="589" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A589" s="13" t="s">
         <v>139</v>
       </c>
@@ -17280,11 +16203,8 @@
       <c r="E589" s="7" t="s">
         <v>1308</v>
       </c>
-      <c r="F589" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="590" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="590" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A590" s="13" t="s">
         <v>139</v>
       </c>
@@ -17300,11 +16220,8 @@
       <c r="E590" s="7" t="s">
         <v>1309</v>
       </c>
-      <c r="F590" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="591" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="591" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A591" s="13" t="s">
         <v>139</v>
       </c>
@@ -17320,11 +16237,8 @@
       <c r="E591" s="7" t="s">
         <v>1310</v>
       </c>
-      <c r="F591" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="592" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="592" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A592" s="13" t="s">
         <v>139</v>
       </c>
@@ -17340,11 +16254,8 @@
       <c r="E592" s="7" t="s">
         <v>1311</v>
       </c>
-      <c r="F592" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="593" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="593" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A593" s="13" t="s">
         <v>139</v>
       </c>
@@ -17360,11 +16271,8 @@
       <c r="E593" s="7" t="s">
         <v>1312</v>
       </c>
-      <c r="F593" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="594" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="594" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A594" s="13" t="s">
         <v>139</v>
       </c>
@@ -17380,11 +16288,8 @@
       <c r="E594" s="7" t="s">
         <v>1313</v>
       </c>
-      <c r="F594" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="595" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="595" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A595" s="13" t="s">
         <v>139</v>
       </c>
@@ -17400,11 +16305,8 @@
       <c r="E595" s="7" t="s">
         <v>1314</v>
       </c>
-      <c r="F595" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="596" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="596" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A596" s="13" t="s">
         <v>139</v>
       </c>
@@ -17420,11 +16322,8 @@
       <c r="E596" s="7" t="s">
         <v>1315</v>
       </c>
-      <c r="F596" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="597" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="597" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A597" s="13" t="s">
         <v>139</v>
       </c>
@@ -17440,11 +16339,8 @@
       <c r="E597" s="7" t="s">
         <v>1316</v>
       </c>
-      <c r="F597" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="598" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="598" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A598" s="13" t="s">
         <v>139</v>
       </c>
@@ -17460,11 +16356,8 @@
       <c r="E598" s="7" t="s">
         <v>1317</v>
       </c>
-      <c r="F598" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="599" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="599" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A599" s="13" t="s">
         <v>139</v>
       </c>
@@ -17480,11 +16373,8 @@
       <c r="E599" s="7" t="s">
         <v>1318</v>
       </c>
-      <c r="F599" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="600" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="600" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A600" s="13" t="s">
         <v>139</v>
       </c>
@@ -17500,11 +16390,8 @@
       <c r="E600" s="7" t="s">
         <v>1319</v>
       </c>
-      <c r="F600" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="601" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="601" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A601" s="13" t="s">
         <v>139</v>
       </c>
@@ -17520,11 +16407,8 @@
       <c r="E601" s="7" t="s">
         <v>1320</v>
       </c>
-      <c r="F601" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="602" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="602" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A602" s="13" t="s">
         <v>139</v>
       </c>
@@ -17540,11 +16424,8 @@
       <c r="E602" s="7" t="s">
         <v>1321</v>
       </c>
-      <c r="F602" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="603" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="603" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A603" s="13" t="s">
         <v>139</v>
       </c>
@@ -17560,11 +16441,8 @@
       <c r="E603" s="7" t="s">
         <v>1322</v>
       </c>
-      <c r="F603" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="604" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="604" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A604" s="13" t="s">
         <v>139</v>
       </c>
@@ -17580,11 +16458,8 @@
       <c r="E604" s="7" t="s">
         <v>1323</v>
       </c>
-      <c r="F604" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="605" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="605" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A605" s="13" t="s">
         <v>139</v>
       </c>
@@ -17600,11 +16475,8 @@
       <c r="E605" s="7" t="s">
         <v>1324</v>
       </c>
-      <c r="F605" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="606" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="606" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A606" s="13" t="s">
         <v>169</v>
       </c>
@@ -17620,11 +16492,8 @@
       <c r="E606" s="7" t="s">
         <v>1325</v>
       </c>
-      <c r="F606" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="607" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="607" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A607" s="13" t="s">
         <v>169</v>
       </c>
@@ -17640,11 +16509,8 @@
       <c r="E607" s="7" t="s">
         <v>1326</v>
       </c>
-      <c r="F607" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="608" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="608" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A608" s="13" t="s">
         <v>169</v>
       </c>
@@ -17660,11 +16526,8 @@
       <c r="E608" s="7" t="s">
         <v>1327</v>
       </c>
-      <c r="F608" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="609" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="609" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A609" s="13" t="s">
         <v>169</v>
       </c>
@@ -17680,11 +16543,8 @@
       <c r="E609" s="7" t="s">
         <v>1328</v>
       </c>
-      <c r="F609" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="610" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="610" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A610" s="13" t="s">
         <v>169</v>
       </c>
@@ -17700,11 +16560,8 @@
       <c r="E610" s="7" t="s">
         <v>1329</v>
       </c>
-      <c r="F610" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="611" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="611" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A611" s="13" t="s">
         <v>169</v>
       </c>
@@ -17720,11 +16577,8 @@
       <c r="E611" s="7" t="s">
         <v>1330</v>
       </c>
-      <c r="F611" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="612" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="612" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A612" s="13" t="s">
         <v>169</v>
       </c>
@@ -17740,11 +16594,8 @@
       <c r="E612" s="7" t="s">
         <v>1331</v>
       </c>
-      <c r="F612" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="613" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="613" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A613" s="13" t="s">
         <v>169</v>
       </c>
@@ -17760,11 +16611,8 @@
       <c r="E613" s="7" t="s">
         <v>1332</v>
       </c>
-      <c r="F613" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="614" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="614" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A614" s="13" t="s">
         <v>169</v>
       </c>
@@ -17780,11 +16628,8 @@
       <c r="E614" s="7" t="s">
         <v>1333</v>
       </c>
-      <c r="F614" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="615" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="615" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A615" s="13" t="s">
         <v>169</v>
       </c>
@@ -17800,11 +16645,8 @@
       <c r="E615" s="7" t="s">
         <v>1334</v>
       </c>
-      <c r="F615" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="616" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="616" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A616" s="13" t="s">
         <v>169</v>
       </c>
@@ -17820,11 +16662,8 @@
       <c r="E616" s="7" t="s">
         <v>1335</v>
       </c>
-      <c r="F616" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="617" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="617" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A617" s="13" t="s">
         <v>169</v>
       </c>
@@ -17840,11 +16679,8 @@
       <c r="E617" s="7" t="s">
         <v>1336</v>
       </c>
-      <c r="F617" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="618" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="618" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A618" s="13" t="s">
         <v>169</v>
       </c>
@@ -17860,11 +16696,8 @@
       <c r="E618" s="7" t="s">
         <v>1337</v>
       </c>
-      <c r="F618" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="619" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="619" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A619" s="13" t="s">
         <v>169</v>
       </c>
@@ -17880,11 +16713,8 @@
       <c r="E619" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="F619" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="620" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="620" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A620" s="13" t="s">
         <v>169</v>
       </c>
@@ -17900,11 +16730,8 @@
       <c r="E620" s="7" t="s">
         <v>1339</v>
       </c>
-      <c r="F620" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="621" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="621" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A621" s="13" t="s">
         <v>169</v>
       </c>
@@ -17920,11 +16747,8 @@
       <c r="E621" s="7" t="s">
         <v>1340</v>
       </c>
-      <c r="F621" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="622" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="622" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A622" s="13" t="s">
         <v>169</v>
       </c>
@@ -17940,11 +16764,8 @@
       <c r="E622" s="7" t="s">
         <v>1341</v>
       </c>
-      <c r="F622" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="623" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="623" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A623" s="13" t="s">
         <v>169</v>
       </c>
@@ -17960,11 +16781,8 @@
       <c r="E623" s="7" t="s">
         <v>1342</v>
       </c>
-      <c r="F623" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="624" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="624" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A624" s="13" t="s">
         <v>169</v>
       </c>
@@ -17980,11 +16798,8 @@
       <c r="E624" s="7" t="s">
         <v>1343</v>
       </c>
-      <c r="F624" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="625" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="625" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A625" s="13" t="s">
         <v>169</v>
       </c>
@@ -18000,11 +16815,8 @@
       <c r="E625" s="7" t="s">
         <v>1344</v>
       </c>
-      <c r="F625" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="626" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="626" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A626" s="13" t="s">
         <v>169</v>
       </c>
@@ -18020,11 +16832,8 @@
       <c r="E626" s="7" t="s">
         <v>1345</v>
       </c>
-      <c r="F626" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="627" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="627" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A627" s="13" t="s">
         <v>169</v>
       </c>
@@ -18040,11 +16849,8 @@
       <c r="E627" s="7" t="s">
         <v>1346</v>
       </c>
-      <c r="F627" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="628" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="628" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A628" s="13" t="s">
         <v>139</v>
       </c>
@@ -18060,11 +16866,8 @@
       <c r="E628" s="7" t="s">
         <v>1347</v>
       </c>
-      <c r="F628" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="629" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="629" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A629" s="13" t="s">
         <v>139</v>
       </c>
@@ -18080,11 +16883,8 @@
       <c r="E629" s="7" t="s">
         <v>1348</v>
       </c>
-      <c r="F629" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="630" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="630" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A630" s="13" t="s">
         <v>139</v>
       </c>
@@ -18100,11 +16900,8 @@
       <c r="E630" s="7" t="s">
         <v>1349</v>
       </c>
-      <c r="F630" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="631" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="631" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A631" s="13" t="s">
         <v>139</v>
       </c>
@@ -18120,11 +16917,8 @@
       <c r="E631" s="7" t="s">
         <v>1350</v>
       </c>
-      <c r="F631" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="632" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="632" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A632" s="13" t="s">
         <v>139</v>
       </c>
@@ -18140,11 +16934,8 @@
       <c r="E632" s="7" t="s">
         <v>1351</v>
       </c>
-      <c r="F632" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="633" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="633" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A633" s="13" t="s">
         <v>139</v>
       </c>
@@ -18160,11 +16951,8 @@
       <c r="E633" s="7" t="s">
         <v>1352</v>
       </c>
-      <c r="F633" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="634" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="634" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A634" s="13" t="s">
         <v>139</v>
       </c>
@@ -18180,11 +16968,8 @@
       <c r="E634" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="F634" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="635" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="635" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A635" s="13" t="s">
         <v>139</v>
       </c>
@@ -18200,11 +16985,8 @@
       <c r="E635" s="7" t="s">
         <v>1354</v>
       </c>
-      <c r="F635" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="636" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="636" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A636" s="13" t="s">
         <v>139</v>
       </c>
@@ -18220,11 +17002,8 @@
       <c r="E636" s="7" t="s">
         <v>1355</v>
       </c>
-      <c r="F636" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="637" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="637" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A637" s="13" t="s">
         <v>139</v>
       </c>
@@ -18240,11 +17019,8 @@
       <c r="E637" s="7" t="s">
         <v>1356</v>
       </c>
-      <c r="F637" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="638" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="638" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A638" s="13" t="s">
         <v>169</v>
       </c>
@@ -18260,11 +17036,8 @@
       <c r="E638" s="7" t="s">
         <v>1357</v>
       </c>
-      <c r="F638" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="639" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="639" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A639" s="13" t="s">
         <v>169</v>
       </c>
@@ -18280,11 +17053,8 @@
       <c r="E639" s="7" t="s">
         <v>1358</v>
       </c>
-      <c r="F639" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="640" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="640" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A640" s="13" t="s">
         <v>169</v>
       </c>
@@ -18300,11 +17070,8 @@
       <c r="E640" s="7" t="s">
         <v>1359</v>
       </c>
-      <c r="F640" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="641" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="641" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A641" s="13" t="s">
         <v>169</v>
       </c>
@@ -18320,11 +17087,8 @@
       <c r="E641" s="7" t="s">
         <v>1360</v>
       </c>
-      <c r="F641" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="642" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="642" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A642" s="13" t="s">
         <v>169</v>
       </c>
@@ -18340,11 +17104,8 @@
       <c r="E642" s="7" t="s">
         <v>1361</v>
       </c>
-      <c r="F642" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="643" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="643" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A643" s="13" t="s">
         <v>169</v>
       </c>
@@ -18360,11 +17121,8 @@
       <c r="E643" s="7" t="s">
         <v>1362</v>
       </c>
-      <c r="F643" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="644" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="644" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A644" s="13" t="s">
         <v>169</v>
       </c>
@@ -18380,11 +17138,8 @@
       <c r="E644" s="7" t="s">
         <v>1363</v>
       </c>
-      <c r="F644" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="645" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="645" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A645" s="13" t="s">
         <v>169</v>
       </c>
@@ -18400,11 +17155,8 @@
       <c r="E645" s="7" t="s">
         <v>1364</v>
       </c>
-      <c r="F645" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="646" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="646" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A646" s="13" t="s">
         <v>169</v>
       </c>
@@ -18420,11 +17172,8 @@
       <c r="E646" s="7" t="s">
         <v>1365</v>
       </c>
-      <c r="F646" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="647" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="647" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A647" s="13" t="s">
         <v>139</v>
       </c>
@@ -18440,11 +17189,8 @@
       <c r="E647" s="7" t="s">
         <v>1366</v>
       </c>
-      <c r="F647" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="648" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="648" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A648" s="13" t="s">
         <v>139</v>
       </c>
@@ -18460,11 +17206,8 @@
       <c r="E648" s="7" t="s">
         <v>1368</v>
       </c>
-      <c r="F648" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="649" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="649" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A649" s="13" t="s">
         <v>139</v>
       </c>
@@ -18480,11 +17223,8 @@
       <c r="E649" s="7" t="s">
         <v>1367</v>
       </c>
-      <c r="F649" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="650" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="650" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A650" s="13" t="s">
         <v>139</v>
       </c>
@@ -18500,11 +17240,8 @@
       <c r="E650" s="7" t="s">
         <v>1369</v>
       </c>
-      <c r="F650" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="651" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="651" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A651" s="13" t="s">
         <v>139</v>
       </c>
@@ -18520,11 +17257,8 @@
       <c r="E651" s="7" t="s">
         <v>1370</v>
       </c>
-      <c r="F651" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="652" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="652" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A652" s="13" t="s">
         <v>139</v>
       </c>
@@ -18540,11 +17274,8 @@
       <c r="E652" s="7" t="s">
         <v>1371</v>
       </c>
-      <c r="F652" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="653" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="653" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A653" s="13" t="s">
         <v>169</v>
       </c>
@@ -18560,11 +17291,8 @@
       <c r="E653" s="7" t="s">
         <v>1372</v>
       </c>
-      <c r="F653" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="654" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="654" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A654" s="13" t="s">
         <v>169</v>
       </c>
@@ -18580,11 +17308,8 @@
       <c r="E654" s="7" t="s">
         <v>1373</v>
       </c>
-      <c r="F654" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="655" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="655" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A655" s="13" t="s">
         <v>169</v>
       </c>
@@ -18600,11 +17325,8 @@
       <c r="E655" s="7" t="s">
         <v>1374</v>
       </c>
-      <c r="F655" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="656" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="656" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A656" s="13" t="s">
         <v>169</v>
       </c>
@@ -18620,11 +17342,8 @@
       <c r="E656" s="7" t="s">
         <v>1375</v>
       </c>
-      <c r="F656" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="657" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="657" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A657" s="13" t="s">
         <v>169</v>
       </c>
@@ -18640,11 +17359,8 @@
       <c r="E657" s="7" t="s">
         <v>1376</v>
       </c>
-      <c r="F657" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="658" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="658" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A658" s="13" t="s">
         <v>169</v>
       </c>
@@ -18660,11 +17376,8 @@
       <c r="E658" s="7" t="s">
         <v>1377</v>
       </c>
-      <c r="F658" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="659" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="659" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A659" s="13" t="s">
         <v>169</v>
       </c>
@@ -18680,11 +17393,8 @@
       <c r="E659" s="7" t="s">
         <v>1378</v>
       </c>
-      <c r="F659" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="660" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="660" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A660" s="13" t="s">
         <v>169</v>
       </c>
@@ -18700,11 +17410,8 @@
       <c r="E660" s="7" t="s">
         <v>1379</v>
       </c>
-      <c r="F660" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="661" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="661" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A661" s="13" t="s">
         <v>169</v>
       </c>
@@ -18720,11 +17427,8 @@
       <c r="E661" s="7" t="s">
         <v>1380</v>
       </c>
-      <c r="F661" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="662" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="662" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A662" s="13" t="s">
         <v>138</v>
       </c>
@@ -18740,11 +17444,8 @@
       <c r="E662" s="7" t="s">
         <v>1381</v>
       </c>
-      <c r="F662" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="663" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="663" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A663" s="13" t="s">
         <v>138</v>
       </c>
@@ -18760,11 +17461,8 @@
       <c r="E663" s="7" t="s">
         <v>1382</v>
       </c>
-      <c r="F663" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="664" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="664" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A664" s="13" t="s">
         <v>138</v>
       </c>
@@ -18780,11 +17478,8 @@
       <c r="E664" s="7" t="s">
         <v>1383</v>
       </c>
-      <c r="F664" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="665" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="665" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A665" s="13" t="s">
         <v>138</v>
       </c>
@@ -18800,11 +17495,8 @@
       <c r="E665" s="7" t="s">
         <v>1384</v>
       </c>
-      <c r="F665" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="666" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="666" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A666" s="13" t="s">
         <v>138</v>
       </c>
@@ -18820,11 +17512,8 @@
       <c r="E666" s="7" t="s">
         <v>1385</v>
       </c>
-      <c r="F666" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="667" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="667" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A667" s="13" t="s">
         <v>138</v>
       </c>
@@ -18840,11 +17529,8 @@
       <c r="E667" s="7" t="s">
         <v>1386</v>
       </c>
-      <c r="F667" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="668" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="668" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A668" s="13" t="s">
         <v>138</v>
       </c>
@@ -18860,11 +17546,8 @@
       <c r="E668" s="7" t="s">
         <v>1387</v>
       </c>
-      <c r="F668" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="669" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="669" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A669" s="13" t="s">
         <v>138</v>
       </c>
@@ -18880,11 +17563,8 @@
       <c r="E669" s="7" t="s">
         <v>1388</v>
       </c>
-      <c r="F669" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="670" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="670" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A670" s="13" t="s">
         <v>138</v>
       </c>
@@ -18900,11 +17580,8 @@
       <c r="E670" s="7" t="s">
         <v>1389</v>
       </c>
-      <c r="F670" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="671" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="671" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A671" s="13" t="s">
         <v>138</v>
       </c>
@@ -18920,11 +17597,8 @@
       <c r="E671" s="7" t="s">
         <v>1390</v>
       </c>
-      <c r="F671" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="672" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="672" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A672" s="13" t="s">
         <v>138</v>
       </c>
@@ -18940,11 +17614,8 @@
       <c r="E672" s="7" t="s">
         <v>1391</v>
       </c>
-      <c r="F672" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="673" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="673" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A673" s="13" t="s">
         <v>138</v>
       </c>
@@ -18960,11 +17631,8 @@
       <c r="E673" s="7" t="s">
         <v>1392</v>
       </c>
-      <c r="F673" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="674" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="674" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A674" s="13" t="s">
         <v>138</v>
       </c>
@@ -18980,11 +17648,8 @@
       <c r="E674" s="7" t="s">
         <v>1393</v>
       </c>
-      <c r="F674" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="675" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="675" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A675" s="13" t="s">
         <v>138</v>
       </c>
@@ -19000,11 +17665,8 @@
       <c r="E675" s="7" t="s">
         <v>1394</v>
       </c>
-      <c r="F675" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="676" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="676" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A676" s="13" t="s">
         <v>141</v>
       </c>
@@ -19020,11 +17682,8 @@
       <c r="E676" s="7" t="s">
         <v>1395</v>
       </c>
-      <c r="F676" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="677" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="677" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A677" s="13" t="s">
         <v>141</v>
       </c>
@@ -19040,11 +17699,8 @@
       <c r="E677" s="7" t="s">
         <v>1396</v>
       </c>
-      <c r="F677" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="678" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="678" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A678" s="13" t="s">
         <v>141</v>
       </c>
@@ -19060,11 +17716,8 @@
       <c r="E678" s="7" t="s">
         <v>1397</v>
       </c>
-      <c r="F678" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="679" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="679" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A679" s="13" t="s">
         <v>141</v>
       </c>
@@ -19080,11 +17733,8 @@
       <c r="E679" s="7" t="s">
         <v>1398</v>
       </c>
-      <c r="F679" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="680" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="680" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A680" s="13" t="s">
         <v>140</v>
       </c>
@@ -19100,11 +17750,8 @@
       <c r="E680" s="7" t="s">
         <v>1399</v>
       </c>
-      <c r="F680" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="681" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="681" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A681" s="13" t="s">
         <v>140</v>
       </c>
@@ -19120,11 +17767,8 @@
       <c r="E681" s="7" t="s">
         <v>1400</v>
       </c>
-      <c r="F681" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="682" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="682" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A682" s="13" t="s">
         <v>140</v>
       </c>
@@ -19140,11 +17784,8 @@
       <c r="E682" s="7" t="s">
         <v>1401</v>
       </c>
-      <c r="F682" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="683" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="683" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A683" s="13" t="s">
         <v>140</v>
       </c>
@@ -19160,11 +17801,8 @@
       <c r="E683" s="7" t="s">
         <v>1402</v>
       </c>
-      <c r="F683" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="684" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="684" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A684" s="13" t="s">
         <v>140</v>
       </c>
@@ -19180,11 +17818,8 @@
       <c r="E684" s="7" t="s">
         <v>1403</v>
       </c>
-      <c r="F684" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="685" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="685" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A685" s="13" t="s">
         <v>140</v>
       </c>
@@ -19200,11 +17835,8 @@
       <c r="E685" s="7" t="s">
         <v>1404</v>
       </c>
-      <c r="F685" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="686" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="686" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A686" s="13" t="s">
         <v>140</v>
       </c>
@@ -19220,11 +17852,8 @@
       <c r="E686" s="7" t="s">
         <v>1405</v>
       </c>
-      <c r="F686" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="687" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="687" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A687" s="13" t="s">
         <v>140</v>
       </c>
@@ -19240,11 +17869,8 @@
       <c r="E687" s="7" t="s">
         <v>1406</v>
       </c>
-      <c r="F687" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="688" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="688" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A688" s="13" t="s">
         <v>140</v>
       </c>
@@ -19260,11 +17886,8 @@
       <c r="E688" s="7" t="s">
         <v>1407</v>
       </c>
-      <c r="F688" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="689" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="689" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A689" s="13" t="s">
         <v>140</v>
       </c>
@@ -19280,11 +17903,8 @@
       <c r="E689" s="7" t="s">
         <v>1408</v>
       </c>
-      <c r="F689" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="690" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="690" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A690" s="13" t="s">
         <v>140</v>
       </c>
@@ -19300,11 +17920,8 @@
       <c r="E690" s="7" t="s">
         <v>1409</v>
       </c>
-      <c r="F690" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="691" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="691" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A691" s="13" t="s">
         <v>140</v>
       </c>
@@ -19320,11 +17937,8 @@
       <c r="E691" s="7" t="s">
         <v>1410</v>
       </c>
-      <c r="F691" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="692" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="692" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A692" s="13" t="s">
         <v>140</v>
       </c>
@@ -19340,11 +17954,8 @@
       <c r="E692" s="7" t="s">
         <v>1411</v>
       </c>
-      <c r="F692" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="693" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="693" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A693" s="13" t="s">
         <v>140</v>
       </c>
@@ -19360,11 +17971,8 @@
       <c r="E693" s="7" t="s">
         <v>1412</v>
       </c>
-      <c r="F693" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="694" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="694" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A694" s="13" t="s">
         <v>143</v>
       </c>
@@ -19380,11 +17988,8 @@
       <c r="E694" s="7" t="s">
         <v>1413</v>
       </c>
-      <c r="F694" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="695" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="695" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A695" s="13" t="s">
         <v>143</v>
       </c>
@@ -19400,11 +18005,8 @@
       <c r="E695" s="7" t="s">
         <v>1414</v>
       </c>
-      <c r="F695" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="696" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="696" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A696" s="13" t="s">
         <v>143</v>
       </c>
@@ -19420,11 +18022,8 @@
       <c r="E696" s="7" t="s">
         <v>1415</v>
       </c>
-      <c r="F696" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="697" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="697" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A697" s="13" t="s">
         <v>143</v>
       </c>
@@ -19440,11 +18039,8 @@
       <c r="E697" s="7" t="s">
         <v>1416</v>
       </c>
-      <c r="F697" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="698" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="698" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A698" s="13" t="s">
         <v>142</v>
       </c>
@@ -19460,11 +18056,8 @@
       <c r="E698" s="7" t="s">
         <v>1417</v>
       </c>
-      <c r="F698" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="699" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="699" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A699" s="13" t="s">
         <v>142</v>
       </c>
@@ -19480,11 +18073,8 @@
       <c r="E699" s="7" t="s">
         <v>1418</v>
       </c>
-      <c r="F699" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="700" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="700" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A700" s="13" t="s">
         <v>142</v>
       </c>
@@ -19500,11 +18090,8 @@
       <c r="E700" s="7" t="s">
         <v>1419</v>
       </c>
-      <c r="F700" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="701" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="701" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A701" s="13" t="s">
         <v>142</v>
       </c>
@@ -19520,11 +18107,8 @@
       <c r="E701" s="7" t="s">
         <v>1420</v>
       </c>
-      <c r="F701" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="702" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="702" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A702" s="13" t="s">
         <v>142</v>
       </c>
@@ -19540,11 +18124,8 @@
       <c r="E702" s="7" t="s">
         <v>1421</v>
       </c>
-      <c r="F702" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="703" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="703" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A703" s="13" t="s">
         <v>142</v>
       </c>
@@ -19560,11 +18141,8 @@
       <c r="E703" s="7" t="s">
         <v>1422</v>
       </c>
-      <c r="F703" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="704" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="704" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A704" s="13" t="s">
         <v>142</v>
       </c>
@@ -19580,11 +18158,8 @@
       <c r="E704" s="7" t="s">
         <v>1423</v>
       </c>
-      <c r="F704" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="705" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="705" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A705" s="13" t="s">
         <v>142</v>
       </c>
@@ -19600,11 +18175,8 @@
       <c r="E705" s="7" t="s">
         <v>1424</v>
       </c>
-      <c r="F705" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="706" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="706" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A706" s="13" t="s">
         <v>142</v>
       </c>
@@ -19620,11 +18192,8 @@
       <c r="E706" s="7" t="s">
         <v>1425</v>
       </c>
-      <c r="F706" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="707" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="707" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A707" s="13" t="s">
         <v>142</v>
       </c>
@@ -19640,11 +18209,8 @@
       <c r="E707" s="7" t="s">
         <v>1426</v>
       </c>
-      <c r="F707" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="708" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="708" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A708" s="13" t="s">
         <v>142</v>
       </c>
@@ -19660,11 +18226,8 @@
       <c r="E708" s="7" t="s">
         <v>1427</v>
       </c>
-      <c r="F708" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="709" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="709" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A709" s="13" t="s">
         <v>142</v>
       </c>
@@ -19680,11 +18243,8 @@
       <c r="E709" s="7" t="s">
         <v>1428</v>
       </c>
-      <c r="F709" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="710" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="710" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A710" s="13" t="s">
         <v>142</v>
       </c>
@@ -19700,11 +18260,8 @@
       <c r="E710" s="7" t="s">
         <v>1429</v>
       </c>
-      <c r="F710" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="711" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="711" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A711" s="13" t="s">
         <v>142</v>
       </c>
@@ -19720,11 +18277,8 @@
       <c r="E711" s="7" t="s">
         <v>1430</v>
       </c>
-      <c r="F711" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="712" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="712" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A712" s="13" t="s">
         <v>145</v>
       </c>
@@ -19740,11 +18294,8 @@
       <c r="E712" s="7" t="s">
         <v>1431</v>
       </c>
-      <c r="F712" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="713" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="713" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A713" s="13" t="s">
         <v>145</v>
       </c>
@@ -19760,11 +18311,8 @@
       <c r="E713" s="7" t="s">
         <v>1432</v>
       </c>
-      <c r="F713" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="714" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="714" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A714" s="13" t="s">
         <v>145</v>
       </c>
@@ -19780,11 +18328,8 @@
       <c r="E714" s="7" t="s">
         <v>1433</v>
       </c>
-      <c r="F714" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="715" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="715" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A715" s="13" t="s">
         <v>145</v>
       </c>
@@ -19800,11 +18345,8 @@
       <c r="E715" s="7" t="s">
         <v>1434</v>
       </c>
-      <c r="F715" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="716" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="716" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A716" s="13" t="s">
         <v>144</v>
       </c>
@@ -19820,11 +18362,8 @@
       <c r="E716" s="7" t="s">
         <v>1435</v>
       </c>
-      <c r="F716" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="717" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="717" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A717" s="13" t="s">
         <v>144</v>
       </c>
@@ -19840,11 +18379,8 @@
       <c r="E717" s="7" t="s">
         <v>1436</v>
       </c>
-      <c r="F717" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="718" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="718" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A718" s="13" t="s">
         <v>144</v>
       </c>
@@ -19860,11 +18396,8 @@
       <c r="E718" s="7" t="s">
         <v>1437</v>
       </c>
-      <c r="F718" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="719" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="719" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A719" s="13" t="s">
         <v>144</v>
       </c>
@@ -19880,11 +18413,8 @@
       <c r="E719" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="F719" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="720" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="720" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A720" s="13" t="s">
         <v>144</v>
       </c>
@@ -19900,11 +18430,8 @@
       <c r="E720" s="7" t="s">
         <v>1439</v>
       </c>
-      <c r="F720" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="721" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="721" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A721" s="13" t="s">
         <v>144</v>
       </c>
@@ -19920,11 +18447,8 @@
       <c r="E721" s="7" t="s">
         <v>1440</v>
       </c>
-      <c r="F721" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="722" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="722" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A722" s="13" t="s">
         <v>144</v>
       </c>
@@ -19940,11 +18464,8 @@
       <c r="E722" s="7" t="s">
         <v>1441</v>
       </c>
-      <c r="F722" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="723" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="723" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A723" s="13" t="s">
         <v>144</v>
       </c>
@@ -19960,11 +18481,8 @@
       <c r="E723" s="7" t="s">
         <v>1442</v>
       </c>
-      <c r="F723" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="724" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="724" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A724" s="13" t="s">
         <v>144</v>
       </c>
@@ -19980,11 +18498,8 @@
       <c r="E724" s="7" t="s">
         <v>1443</v>
       </c>
-      <c r="F724" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="725" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="725" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A725" s="13" t="s">
         <v>144</v>
       </c>
@@ -20000,11 +18515,8 @@
       <c r="E725" s="7" t="s">
         <v>1444</v>
       </c>
-      <c r="F725" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="726" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="726" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A726" s="13" t="s">
         <v>144</v>
       </c>
@@ -20020,11 +18532,8 @@
       <c r="E726" s="7" t="s">
         <v>1445</v>
       </c>
-      <c r="F726" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="727" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="727" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A727" s="13" t="s">
         <v>144</v>
       </c>
@@ -20040,11 +18549,8 @@
       <c r="E727" s="7" t="s">
         <v>1446</v>
       </c>
-      <c r="F727" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="728" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="728" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A728" s="13" t="s">
         <v>144</v>
       </c>
@@ -20060,11 +18566,8 @@
       <c r="E728" s="7" t="s">
         <v>1447</v>
       </c>
-      <c r="F728" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="729" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="729" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A729" s="13" t="s">
         <v>144</v>
       </c>
@@ -20080,11 +18583,8 @@
       <c r="E729" s="7" t="s">
         <v>1448</v>
       </c>
-      <c r="F729" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="730" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="730" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A730" s="13" t="s">
         <v>144</v>
       </c>
@@ -20100,11 +18600,8 @@
       <c r="E730" s="7" t="s">
         <v>1449</v>
       </c>
-      <c r="F730" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="731" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="731" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A731" s="13" t="s">
         <v>144</v>
       </c>
@@ -20120,11 +18617,8 @@
       <c r="E731" s="7" t="s">
         <v>1450</v>
       </c>
-      <c r="F731" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="732" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="732" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A732" s="13" t="s">
         <v>144</v>
       </c>
@@ -20140,11 +18634,8 @@
       <c r="E732" s="7" t="s">
         <v>1451</v>
       </c>
-      <c r="F732" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="733" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="733" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A733" s="13" t="s">
         <v>144</v>
       </c>
@@ -20160,11 +18651,8 @@
       <c r="E733" s="7" t="s">
         <v>1452</v>
       </c>
-      <c r="F733" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="734" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="734" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A734" s="13" t="s">
         <v>144</v>
       </c>
@@ -20180,11 +18668,8 @@
       <c r="E734" s="7" t="s">
         <v>1453</v>
       </c>
-      <c r="F734" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="735" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="735" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A735" s="13" t="s">
         <v>144</v>
       </c>
@@ -20200,11 +18685,8 @@
       <c r="E735" s="7" t="s">
         <v>1454</v>
       </c>
-      <c r="F735" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="736" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="736" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A736" s="13" t="s">
         <v>144</v>
       </c>
@@ -20220,11 +18702,8 @@
       <c r="E736" s="7" t="s">
         <v>1455</v>
       </c>
-      <c r="F736" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="737" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="737" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A737" s="13" t="s">
         <v>144</v>
       </c>
@@ -20240,11 +18719,8 @@
       <c r="E737" s="7" t="s">
         <v>1456</v>
       </c>
-      <c r="F737" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="738" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="738" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A738" s="13" t="s">
         <v>144</v>
       </c>
@@ -20260,11 +18736,8 @@
       <c r="E738" s="7" t="s">
         <v>1457</v>
       </c>
-      <c r="F738" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="739" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="739" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A739" s="13" t="s">
         <v>144</v>
       </c>
@@ -20280,11 +18753,8 @@
       <c r="E739" s="7" t="s">
         <v>1458</v>
       </c>
-      <c r="F739" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="740" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="740" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A740" s="13" t="s">
         <v>144</v>
       </c>
@@ -20300,11 +18770,8 @@
       <c r="E740" s="7" t="s">
         <v>1459</v>
       </c>
-      <c r="F740" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="741" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="741" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A741" s="13" t="s">
         <v>144</v>
       </c>
@@ -20320,11 +18787,8 @@
       <c r="E741" s="7" t="s">
         <v>1460</v>
       </c>
-      <c r="F741" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="742" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="742" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A742" s="13" t="s">
         <v>144</v>
       </c>
@@ -20340,11 +18804,8 @@
       <c r="E742" s="7" t="s">
         <v>1461</v>
       </c>
-      <c r="F742" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="743" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="743" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A743" s="13" t="s">
         <v>144</v>
       </c>
@@ -20360,11 +18821,8 @@
       <c r="E743" s="7" t="s">
         <v>1462</v>
       </c>
-      <c r="F743" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="744" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="744" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A744" s="13" t="s">
         <v>144</v>
       </c>
@@ -20380,11 +18838,8 @@
       <c r="E744" s="7" t="s">
         <v>1463</v>
       </c>
-      <c r="F744" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="745" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="745" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A745" s="13" t="s">
         <v>144</v>
       </c>
@@ -20400,11 +18855,8 @@
       <c r="E745" s="7" t="s">
         <v>1464</v>
       </c>
-      <c r="F745" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="746" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="746" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A746" s="13" t="s">
         <v>144</v>
       </c>
@@ -20420,11 +18872,8 @@
       <c r="E746" s="7" t="s">
         <v>1466</v>
       </c>
-      <c r="F746" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="747" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="747" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A747" s="13" t="s">
         <v>144</v>
       </c>
@@ -20440,11 +18889,8 @@
       <c r="E747" s="7" t="s">
         <v>1465</v>
       </c>
-      <c r="F747" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="748" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="748" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A748" s="13" t="s">
         <v>144</v>
       </c>
@@ -20460,11 +18906,8 @@
       <c r="E748" s="7" t="s">
         <v>1467</v>
       </c>
-      <c r="F748" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="749" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="749" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A749" s="13" t="s">
         <v>144</v>
       </c>
@@ -20480,11 +18923,8 @@
       <c r="E749" s="7" t="s">
         <v>1468</v>
       </c>
-      <c r="F749" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="750" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="750" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A750" s="13" t="s">
         <v>144</v>
       </c>
@@ -20500,11 +18940,8 @@
       <c r="E750" s="7" t="s">
         <v>1469</v>
       </c>
-      <c r="F750" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="751" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="751" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A751" s="13" t="s">
         <v>144</v>
       </c>
@@ -20520,11 +18957,8 @@
       <c r="E751" s="7" t="s">
         <v>1470</v>
       </c>
-      <c r="F751" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="752" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="752" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A752" s="13" t="s">
         <v>144</v>
       </c>
@@ -20540,11 +18974,8 @@
       <c r="E752" s="7" t="s">
         <v>1471</v>
       </c>
-      <c r="F752" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="753" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="753" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A753" s="13" t="s">
         <v>144</v>
       </c>
@@ -20560,11 +18991,8 @@
       <c r="E753" s="7" t="s">
         <v>1472</v>
       </c>
-      <c r="F753" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="754" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="754" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A754" s="13" t="s">
         <v>144</v>
       </c>
@@ -20580,11 +19008,8 @@
       <c r="E754" s="7" t="s">
         <v>1473</v>
       </c>
-      <c r="F754" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="755" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="755" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A755" s="13" t="s">
         <v>144</v>
       </c>
@@ -20600,11 +19025,8 @@
       <c r="E755" s="7" t="s">
         <v>1474</v>
       </c>
-      <c r="F755" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="756" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="756" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A756" s="13" t="s">
         <v>147</v>
       </c>
@@ -20620,11 +19042,8 @@
       <c r="E756" s="7" t="s">
         <v>1475</v>
       </c>
-      <c r="F756" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="757" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="757" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A757" s="13" t="s">
         <v>147</v>
       </c>
@@ -20640,11 +19059,8 @@
       <c r="E757" s="7" t="s">
         <v>1476</v>
       </c>
-      <c r="F757" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="758" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="758" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A758" s="13" t="s">
         <v>147</v>
       </c>
@@ -20660,11 +19076,8 @@
       <c r="E758" s="7" t="s">
         <v>1477</v>
       </c>
-      <c r="F758" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="759" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="759" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A759" s="13" t="s">
         <v>147</v>
       </c>
@@ -20680,11 +19093,8 @@
       <c r="E759" s="7" t="s">
         <v>1478</v>
       </c>
-      <c r="F759" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="760" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="760" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A760" s="13" t="s">
         <v>146</v>
       </c>
@@ -20700,11 +19110,8 @@
       <c r="E760" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="F760" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="761" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="761" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A761" s="13" t="s">
         <v>146</v>
       </c>
@@ -20720,11 +19127,8 @@
       <c r="E761" s="7" t="s">
         <v>1480</v>
       </c>
-      <c r="F761" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="762" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="762" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A762" s="13" t="s">
         <v>146</v>
       </c>
@@ -20740,11 +19144,8 @@
       <c r="E762" s="7" t="s">
         <v>1482</v>
       </c>
-      <c r="F762" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="763" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="763" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A763" s="13" t="s">
         <v>146</v>
       </c>
@@ -20760,11 +19161,8 @@
       <c r="E763" s="7" t="s">
         <v>1481</v>
       </c>
-      <c r="F763" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="764" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="764" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A764" s="13" t="s">
         <v>146</v>
       </c>
@@ -20780,11 +19178,8 @@
       <c r="E764" s="7" t="s">
         <v>1483</v>
       </c>
-      <c r="F764" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="765" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="765" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A765" s="13" t="s">
         <v>146</v>
       </c>
@@ -20800,11 +19195,8 @@
       <c r="E765" s="7" t="s">
         <v>1484</v>
       </c>
-      <c r="F765" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="766" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="766" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A766" s="13" t="s">
         <v>146</v>
       </c>
@@ -20820,11 +19212,8 @@
       <c r="E766" s="7" t="s">
         <v>1485</v>
       </c>
-      <c r="F766" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="767" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="767" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A767" s="13" t="s">
         <v>146</v>
       </c>
@@ -20840,11 +19229,8 @@
       <c r="E767" s="7" t="s">
         <v>1486</v>
       </c>
-      <c r="F767" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="768" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="768" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A768" s="13" t="s">
         <v>146</v>
       </c>
@@ -20860,11 +19246,8 @@
       <c r="E768" s="7" t="s">
         <v>1487</v>
       </c>
-      <c r="F768" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="769" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="769" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A769" s="13" t="s">
         <v>146</v>
       </c>
@@ -20880,11 +19263,8 @@
       <c r="E769" s="7" t="s">
         <v>1488</v>
       </c>
-      <c r="F769" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="770" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="770" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A770" s="13" t="s">
         <v>146</v>
       </c>
@@ -20900,11 +19280,8 @@
       <c r="E770" s="7" t="s">
         <v>1489</v>
       </c>
-      <c r="F770" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="771" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="771" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A771" s="13" t="s">
         <v>146</v>
       </c>
@@ -20920,11 +19297,8 @@
       <c r="E771" s="7" t="s">
         <v>1490</v>
       </c>
-      <c r="F771" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="772" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="772" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A772" s="13" t="s">
         <v>146</v>
       </c>
@@ -20940,11 +19314,8 @@
       <c r="E772" s="7" t="s">
         <v>1491</v>
       </c>
-      <c r="F772" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="773" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="773" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A773" s="13" t="s">
         <v>146</v>
       </c>
@@ -20960,11 +19331,8 @@
       <c r="E773" s="7" t="s">
         <v>1492</v>
       </c>
-      <c r="F773" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="774" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="774" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A774" s="13" t="s">
         <v>151</v>
       </c>
@@ -20980,11 +19348,8 @@
       <c r="E774" s="7" t="s">
         <v>1493</v>
       </c>
-      <c r="F774" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="775" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="775" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A775" s="13" t="s">
         <v>151</v>
       </c>
@@ -21000,11 +19365,8 @@
       <c r="E775" s="7" t="s">
         <v>1494</v>
       </c>
-      <c r="F775" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="776" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="776" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A776" s="13" t="s">
         <v>151</v>
       </c>
@@ -21020,11 +19382,8 @@
       <c r="E776" s="7" t="s">
         <v>1495</v>
       </c>
-      <c r="F776" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="777" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="777" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A777" s="13" t="s">
         <v>151</v>
       </c>
@@ -21040,11 +19399,8 @@
       <c r="E777" s="7" t="s">
         <v>1496</v>
       </c>
-      <c r="F777" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="778" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="778" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A778" s="13" t="s">
         <v>149</v>
       </c>
@@ -21060,11 +19416,8 @@
       <c r="E778" s="7" t="s">
         <v>1497</v>
       </c>
-      <c r="F778" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="779" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="779" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A779" s="13" t="s">
         <v>149</v>
       </c>
@@ -21080,11 +19433,8 @@
       <c r="E779" s="7" t="s">
         <v>1498</v>
       </c>
-      <c r="F779" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="780" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="780" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A780" s="13" t="s">
         <v>149</v>
       </c>
@@ -21100,11 +19450,8 @@
       <c r="E780" s="7" t="s">
         <v>1499</v>
       </c>
-      <c r="F780" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="781" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="781" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A781" s="13" t="s">
         <v>149</v>
       </c>
@@ -21120,11 +19467,8 @@
       <c r="E781" s="7" t="s">
         <v>1500</v>
       </c>
-      <c r="F781" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="782" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="782" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A782" s="13" t="s">
         <v>149</v>
       </c>
@@ -21140,11 +19484,8 @@
       <c r="E782" s="7" t="s">
         <v>1501</v>
       </c>
-      <c r="F782" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="783" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="783" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A783" s="13" t="s">
         <v>149</v>
       </c>
@@ -21160,11 +19501,8 @@
       <c r="E783" s="7" t="s">
         <v>1502</v>
       </c>
-      <c r="F783" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="784" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="784" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A784" s="13" t="s">
         <v>149</v>
       </c>
@@ -21180,11 +19518,8 @@
       <c r="E784" s="7" t="s">
         <v>1503</v>
       </c>
-      <c r="F784" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="785" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="785" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A785" s="13" t="s">
         <v>149</v>
       </c>
@@ -21200,11 +19535,8 @@
       <c r="E785" s="7" t="s">
         <v>1504</v>
       </c>
-      <c r="F785" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="786" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="786" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A786" s="13" t="s">
         <v>149</v>
       </c>
@@ -21220,11 +19552,8 @@
       <c r="E786" s="7" t="s">
         <v>1505</v>
       </c>
-      <c r="F786" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="787" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="787" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A787" s="13" t="s">
         <v>149</v>
       </c>
@@ -21240,11 +19569,8 @@
       <c r="E787" s="7" t="s">
         <v>1506</v>
       </c>
-      <c r="F787" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="788" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="788" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A788" s="13" t="s">
         <v>149</v>
       </c>
@@ -21260,11 +19586,8 @@
       <c r="E788" s="7" t="s">
         <v>1507</v>
       </c>
-      <c r="F788" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="789" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="789" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A789" s="13" t="s">
         <v>149</v>
       </c>
@@ -21280,11 +19603,8 @@
       <c r="E789" s="7" t="s">
         <v>1508</v>
       </c>
-      <c r="F789" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="790" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="790" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A790" s="13" t="s">
         <v>149</v>
       </c>
@@ -21300,11 +19620,8 @@
       <c r="E790" s="7" t="s">
         <v>1509</v>
       </c>
-      <c r="F790" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="791" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="791" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A791" s="13" t="s">
         <v>149</v>
       </c>
@@ -21320,11 +19637,8 @@
       <c r="E791" s="7" t="s">
         <v>1510</v>
       </c>
-      <c r="F791" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="792" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="792" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A792" s="13" t="s">
         <v>148</v>
       </c>
@@ -21340,11 +19654,8 @@
       <c r="E792" s="7" t="s">
         <v>1511</v>
       </c>
-      <c r="F792" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="793" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="793" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A793" s="13" t="s">
         <v>148</v>
       </c>
@@ -21360,11 +19671,8 @@
       <c r="E793" s="7" t="s">
         <v>1512</v>
       </c>
-      <c r="F793" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="794" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="794" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A794" s="13" t="s">
         <v>148</v>
       </c>
@@ -21380,11 +19688,8 @@
       <c r="E794" s="7" t="s">
         <v>1513</v>
       </c>
-      <c r="F794" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="795" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="795" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A795" s="13" t="s">
         <v>148</v>
       </c>
@@ -21400,11 +19705,8 @@
       <c r="E795" s="7" t="s">
         <v>1514</v>
       </c>
-      <c r="F795" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="796" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="796" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A796" s="13" t="s">
         <v>148</v>
       </c>
@@ -21420,11 +19722,8 @@
       <c r="E796" s="7" t="s">
         <v>1515</v>
       </c>
-      <c r="F796" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="797" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="797" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A797" s="13" t="s">
         <v>148</v>
       </c>
@@ -21440,11 +19739,8 @@
       <c r="E797" s="7" t="s">
         <v>1516</v>
       </c>
-      <c r="F797" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="798" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="798" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A798" s="13" t="s">
         <v>148</v>
       </c>
@@ -21460,11 +19756,8 @@
       <c r="E798" s="7" t="s">
         <v>1517</v>
       </c>
-      <c r="F798" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="799" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="799" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A799" s="13" t="s">
         <v>148</v>
       </c>
@@ -21480,11 +19773,8 @@
       <c r="E799" s="7" t="s">
         <v>1518</v>
       </c>
-      <c r="F799" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="800" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="800" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A800" s="13" t="s">
         <v>148</v>
       </c>
@@ -21499,9 +19789,6 @@
       </c>
       <c r="E800" s="7" t="s">
         <v>1519</v>
-      </c>
-      <c r="F800" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="801" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -21520,9 +19807,6 @@
       <c r="E801" s="7" t="s">
         <v>1520</v>
       </c>
-      <c r="F801" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="802" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A802" s="13" t="s">
@@ -21540,9 +19824,6 @@
       <c r="E802" s="7" t="s">
         <v>1521</v>
       </c>
-      <c r="F802" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="803" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A803" s="13" t="s">
@@ -21560,9 +19841,6 @@
       <c r="E803" s="7" t="s">
         <v>1522</v>
       </c>
-      <c r="F803" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="804" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A804" s="13" t="s">
@@ -21580,9 +19858,6 @@
       <c r="E804" s="7" t="s">
         <v>1523</v>
       </c>
-      <c r="F804" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="805" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A805" s="13" t="s">
@@ -21600,9 +19875,6 @@
       <c r="E805" s="7" t="s">
         <v>1524</v>
       </c>
-      <c r="F805" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="806" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A806" s="13" t="s">
@@ -21620,9 +19892,6 @@
       <c r="E806" s="7" t="s">
         <v>1525</v>
       </c>
-      <c r="F806" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="807" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A807" s="13" t="s">
@@ -21640,9 +19909,6 @@
       <c r="E807" s="7" t="s">
         <v>1526</v>
       </c>
-      <c r="F807" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="808" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A808" s="13" t="s">
@@ -21660,9 +19926,6 @@
       <c r="E808" s="7" t="s">
         <v>1527</v>
       </c>
-      <c r="F808" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="809" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A809" s="13" t="s">
@@ -21680,9 +19943,6 @@
       <c r="E809" s="7" t="s">
         <v>1528</v>
       </c>
-      <c r="F809" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="810" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A810" s="13" t="s">
@@ -23164,11 +21424,8 @@
       <c r="E896" s="7" t="s">
         <v>1129</v>
       </c>
-      <c r="F896" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="897" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A897" s="6" t="s">
         <v>584</v>
       </c>
@@ -23184,11 +21441,8 @@
       <c r="E897" s="7" t="s">
         <v>1130</v>
       </c>
-      <c r="F897" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="898" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A898" s="6" t="s">
         <v>584</v>
       </c>
@@ -23204,11 +21458,8 @@
       <c r="E898" s="7" t="s">
         <v>1615</v>
       </c>
-      <c r="F898" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="899" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A899" s="6" t="s">
         <v>584</v>
       </c>
@@ -23224,11 +21475,8 @@
       <c r="E899" s="7" t="s">
         <v>1131</v>
       </c>
-      <c r="F899" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="900" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A900" s="6" t="s">
         <v>584</v>
       </c>
@@ -23244,11 +21492,8 @@
       <c r="E900" s="7" t="s">
         <v>1132</v>
       </c>
-      <c r="F900" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="901" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A901" s="6" t="s">
         <v>584</v>
       </c>
@@ -23264,11 +21509,8 @@
       <c r="E901" s="7" t="s">
         <v>1133</v>
       </c>
-      <c r="F901" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="902" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A902" s="6" t="s">
         <v>584</v>
       </c>
@@ -23284,11 +21526,8 @@
       <c r="E902" s="7" t="s">
         <v>1616</v>
       </c>
-      <c r="F902" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="903" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A903" s="6" t="s">
         <v>584</v>
       </c>
@@ -23304,11 +21543,8 @@
       <c r="E903" s="7" t="s">
         <v>1134</v>
       </c>
-      <c r="F903" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="904" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A904" s="6" t="s">
         <v>584</v>
       </c>
@@ -23324,11 +21560,8 @@
       <c r="E904" s="7" t="s">
         <v>1135</v>
       </c>
-      <c r="F904" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="905" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A905" s="6" t="s">
         <v>584</v>
       </c>
@@ -23344,11 +21577,8 @@
       <c r="E905" s="7" t="s">
         <v>1136</v>
       </c>
-      <c r="F905" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="906" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A906" s="6" t="s">
         <v>584</v>
       </c>
@@ -23364,11 +21594,8 @@
       <c r="E906" s="7" t="s">
         <v>1617</v>
       </c>
-      <c r="F906" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="907" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A907" s="6" t="s">
         <v>584</v>
       </c>
@@ -23384,11 +21611,8 @@
       <c r="E907" s="7" t="s">
         <v>1138</v>
       </c>
-      <c r="F907" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="908" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A908" s="6" t="s">
         <v>164</v>
       </c>
@@ -23404,11 +21628,8 @@
       <c r="E908" s="7" t="s">
         <v>1139</v>
       </c>
-      <c r="F908" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="909" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A909" s="6" t="s">
         <v>164</v>
       </c>
@@ -23424,11 +21645,8 @@
       <c r="E909" s="7" t="s">
         <v>1140</v>
       </c>
-      <c r="F909" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="910" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A910" s="6" t="s">
         <v>164</v>
       </c>
@@ -23444,11 +21662,8 @@
       <c r="E910" s="7" t="s">
         <v>1618</v>
       </c>
-      <c r="F910" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="911" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A911" s="6" t="s">
         <v>164</v>
       </c>
@@ -23464,11 +21679,8 @@
       <c r="E911" s="7" t="s">
         <v>1142</v>
       </c>
-      <c r="F911" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="912" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A912" s="6" t="s">
         <v>627</v>
       </c>
@@ -23483,9 +21695,6 @@
       </c>
       <c r="E912" s="7" t="s">
         <v>1143</v>
-      </c>
-      <c r="F912" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.2">
@@ -23504,9 +21713,6 @@
       <c r="E913" s="7" t="s">
         <v>1144</v>
       </c>
-      <c r="F913" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A914" s="6" t="s">
@@ -23524,9 +21730,6 @@
       <c r="E914" s="7" t="s">
         <v>1619</v>
       </c>
-      <c r="F914" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A915" s="6" t="s">
@@ -23544,9 +21747,6 @@
       <c r="E915" s="7" t="s">
         <v>1146</v>
       </c>
-      <c r="F915" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A916" s="6" t="s">
@@ -23564,9 +21764,6 @@
       <c r="E916" s="7" t="s">
         <v>1620</v>
       </c>
-      <c r="F916" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A917" s="6" t="s">
@@ -23584,9 +21781,6 @@
       <c r="E917" s="7" t="s">
         <v>1621</v>
       </c>
-      <c r="F917" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A918" s="6" t="s">
@@ -23604,9 +21798,6 @@
       <c r="E918" s="7" t="s">
         <v>1622</v>
       </c>
-      <c r="F918" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A919" s="6" t="s">
@@ -23624,9 +21815,6 @@
       <c r="E919" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="F919" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A920" s="6" t="s">
@@ -23644,9 +21832,6 @@
       <c r="E920" s="7" t="s">
         <v>1623</v>
       </c>
-      <c r="F920" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A921" s="6" t="s">
@@ -23681,9 +21866,6 @@
       <c r="E922" s="7" t="s">
         <v>1625</v>
       </c>
-      <c r="F922" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A923" s="6" t="s">
@@ -23769,9 +21951,6 @@
       <c r="E927" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="F927" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A928" s="6" t="s">
@@ -23789,9 +21968,6 @@
       <c r="E928" s="7" t="s">
         <v>1630</v>
       </c>
-      <c r="F928" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A929" s="6" t="s">
@@ -23877,9 +22053,6 @@
       <c r="E933" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="F933" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A934" s="6" t="s">
@@ -23897,9 +22070,6 @@
       <c r="E934" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="F934" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A935" s="6" t="s">
@@ -23917,9 +22087,6 @@
       <c r="E935" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="F935" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A936" s="6" t="s">
@@ -23937,9 +22104,6 @@
       <c r="E936" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="F936" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A937" s="6" t="s">
@@ -23957,9 +22121,6 @@
       <c r="E937" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="F937" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A938" s="6" t="s">
@@ -23994,9 +22155,6 @@
       <c r="E939" s="7" t="s">
         <v>1634</v>
       </c>
-      <c r="F939" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A940" s="6" t="s">
@@ -24082,9 +22240,6 @@
       <c r="E944" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="F944" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A945" s="6" t="s">
@@ -24171,9 +22326,6 @@
       <c r="E949" s="7" t="s">
         <v>1640</v>
       </c>
-      <c r="F949" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A950" s="6" t="s">
@@ -24188,9 +22340,6 @@
       <c r="E950" s="7" t="s">
         <v>1129</v>
       </c>
-      <c r="F950" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A951" s="6" t="s">
@@ -24205,9 +22354,6 @@
       <c r="E951" s="7" t="s">
         <v>1130</v>
       </c>
-      <c r="F951" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A952" s="6" t="s">
@@ -24222,9 +22368,6 @@
       <c r="E952" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="F952" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A953" s="6" t="s">
@@ -24259,9 +22402,6 @@
       <c r="E954" s="7" t="s">
         <v>1132</v>
       </c>
-      <c r="F954" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A955" s="6" t="s">
@@ -24279,9 +22419,6 @@
       <c r="E955" s="7" t="s">
         <v>1133</v>
       </c>
-      <c r="F955" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A956" s="6" t="s">
@@ -24299,9 +22436,6 @@
       <c r="E956" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="F956" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="957" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A957" s="6" t="s">
@@ -24336,9 +22470,6 @@
       <c r="E958" s="7" t="s">
         <v>1136</v>
       </c>
-      <c r="F958" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A959" s="6" t="s">
@@ -24356,9 +22487,6 @@
       <c r="E959" s="7" t="s">
         <v>1135</v>
       </c>
-      <c r="F959" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A960" s="6" t="s">
@@ -24376,9 +22504,6 @@
       <c r="E960" s="7" t="s">
         <v>1137</v>
       </c>
-      <c r="F960" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="961" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A961" s="6" t="s">
@@ -24396,9 +22521,6 @@
       <c r="E961" s="7" t="s">
         <v>1138</v>
       </c>
-      <c r="F961" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A962" s="6" t="s">
@@ -24451,9 +22573,6 @@
       <c r="E964" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="F964" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A965" s="6" t="s">
@@ -24471,9 +22590,6 @@
       <c r="E965" s="7" t="s">
         <v>742</v>
       </c>
-      <c r="F965" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A966" s="6" t="s">
@@ -24491,9 +22607,6 @@
       <c r="E966" s="7" t="s">
         <v>1643</v>
       </c>
-      <c r="F966" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A967" s="6" t="s">
@@ -24511,9 +22624,6 @@
       <c r="E967" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="F967" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A968" s="6" t="s">
@@ -24531,9 +22641,6 @@
       <c r="E968" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="F968" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A969" s="6" t="s">
@@ -24551,9 +22658,6 @@
       <c r="E969" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="F969" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A970" s="6" t="s">
@@ -24571,9 +22675,6 @@
       <c r="E970" s="7" t="s">
         <v>1644</v>
       </c>
-      <c r="F970" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A971" s="6" t="s">
@@ -24591,9 +22692,6 @@
       <c r="E971" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="F971" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="972" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A972" s="6" t="s">
@@ -24628,9 +22726,6 @@
       <c r="E973" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="F973" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A974" s="6" t="s">
@@ -24648,9 +22743,6 @@
       <c r="E974" s="7" t="s">
         <v>742</v>
       </c>
-      <c r="F974" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A975" s="6" t="s">
@@ -24668,9 +22760,6 @@
       <c r="E975" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="F975" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="976" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A976" s="6" t="s">
@@ -24719,9 +22808,6 @@
       <c r="E978" s="7" t="s">
         <v>1633</v>
       </c>
-      <c r="F978" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="979" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A979" s="6" t="s">
@@ -24753,9 +22839,6 @@
       <c r="E980" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="F980" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="981" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A981" s="6" t="s">
@@ -24770,9 +22853,6 @@
       <c r="E981" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="F981" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A982" s="6" t="s">
@@ -24790,9 +22870,6 @@
       <c r="E982" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="F982" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A983" s="6" t="s">
@@ -24810,9 +22887,6 @@
       <c r="E983" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="F983" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="984" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A984" s="6" t="s">
@@ -24830,9 +22904,6 @@
       <c r="E984" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="F984" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A985" s="6" t="s">
@@ -24849,9 +22920,6 @@
       </c>
       <c r="E985" s="7" t="s">
         <v>751</v>
-      </c>
-      <c r="F985" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.2">

--- a/YAML-CREATION/ALL-DDC/all-ddc.xlsx
+++ b/YAML-CREATION/ALL-DDC/all-ddc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\YAML-CREATION\ALL-DDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12974F99-490D-46DC-A00A-EDE134A5059A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A55D59-4DA6-4047-A00C-754880C5C3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5428" uniqueCount="1687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5428" uniqueCount="1689">
   <si>
     <t>dbo.section</t>
   </si>
@@ -5094,6 +5094,12 @@
   </si>
   <si>
     <t>2f5bed12-f92d-344f-38b8-50f2278c97a5</t>
+  </si>
+  <si>
+    <t>percent_relative_humidity: percent_relative_humidity</t>
+  </si>
+  <si>
+    <t>percent: percentpercent_relative_humidity: percent_relative_humidity</t>
   </si>
 </sst>
 </file>
@@ -5714,8 +5720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="N1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
@@ -7376,9 +7382,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G996"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1006" sqref="C1006"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A804" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D813" sqref="D813"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7388,7 +7394,7 @@
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
     <col min="5" max="5" width="46.28515625" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="32.28515625" customWidth="1"/>
   </cols>
@@ -7516,7 +7522,7 @@
         <v>737</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>85</v>
+        <v>749</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -7534,7 +7540,7 @@
         <v>738</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>87</v>
+        <v>748</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -7806,7 +7812,7 @@
         <v>753</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>85</v>
+        <v>749</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7823,7 +7829,7 @@
         <v>754</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>87</v>
+        <v>748</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -8030,7 +8036,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>99</v>
       </c>
@@ -8044,7 +8050,7 @@
         <v>767</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -8146,7 +8152,7 @@
         <v>773</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>85</v>
+        <v>749</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -8163,7 +8169,7 @@
         <v>774</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>87</v>
+        <v>748</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -8370,7 +8376,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>104</v>
       </c>
@@ -8384,7 +8390,7 @@
         <v>787</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>85</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -8403,6 +8409,7 @@
       <c r="E59" s="8" t="s">
         <v>788</v>
       </c>
+      <c r="F59" s="8"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
@@ -9013,7 +9020,7 @@
         <v>824</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -9339,7 +9346,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>107</v>
       </c>
@@ -9353,7 +9360,7 @@
         <v>844</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -9679,7 +9686,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>108</v>
       </c>
@@ -9693,7 +9700,7 @@
         <v>864</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -10019,7 +10026,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>109</v>
       </c>
@@ -10033,7 +10040,7 @@
         <v>884</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -10699,7 +10706,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>111</v>
       </c>
@@ -10713,7 +10720,7 @@
         <v>924</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -11039,7 +11046,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>112</v>
       </c>
@@ -11053,7 +11060,7 @@
         <v>944</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -11381,7 +11388,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>113</v>
       </c>
@@ -11395,7 +11402,7 @@
         <v>964</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
@@ -11721,7 +11728,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>114</v>
       </c>
@@ -11735,7 +11742,7 @@
         <v>984</v>
       </c>
       <c r="F255" s="8" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
@@ -12061,7 +12068,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>115</v>
       </c>
@@ -12075,7 +12082,7 @@
         <v>1004</v>
       </c>
       <c r="F275" s="8" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
@@ -12401,7 +12408,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>116</v>
       </c>
@@ -12415,7 +12422,7 @@
         <v>1024</v>
       </c>
       <c r="F295" s="8" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
@@ -12741,7 +12748,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>117</v>
       </c>
@@ -12755,7 +12762,7 @@
         <v>1024</v>
       </c>
       <c r="F315" s="8" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
@@ -13370,7 +13377,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>119</v>
       </c>
@@ -13384,7 +13391,7 @@
         <v>1061</v>
       </c>
       <c r="F352" s="8" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
@@ -13999,7 +14006,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
         <v>121</v>
       </c>
@@ -14013,7 +14020,7 @@
         <v>1098</v>
       </c>
       <c r="F389" s="8" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="390" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -21461,7 +21468,7 @@
         <v>1523</v>
       </c>
       <c r="F827" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.2">
@@ -21495,7 +21502,7 @@
         <v>1524</v>
       </c>
       <c r="F829" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.2">
@@ -21529,7 +21536,7 @@
         <v>1525</v>
       </c>
       <c r="F831" s="6" t="s">
-        <v>749</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.2">
@@ -21563,7 +21570,7 @@
         <v>1526</v>
       </c>
       <c r="F833" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.2">
@@ -21597,7 +21604,7 @@
         <v>1527</v>
       </c>
       <c r="F835" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.2">
@@ -21631,7 +21638,7 @@
         <v>1528</v>
       </c>
       <c r="F837" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.2">
@@ -21665,7 +21672,7 @@
         <v>1529</v>
       </c>
       <c r="F839" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.2">
@@ -21699,7 +21706,7 @@
         <v>1530</v>
       </c>
       <c r="F841" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.2">
@@ -21733,7 +21740,7 @@
         <v>1532</v>
       </c>
       <c r="F843" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.2">
@@ -21767,7 +21774,7 @@
         <v>1534</v>
       </c>
       <c r="F845" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.2">
@@ -21801,7 +21808,7 @@
         <v>1536</v>
       </c>
       <c r="F847" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.2">
@@ -21835,7 +21842,7 @@
         <v>1538</v>
       </c>
       <c r="F849" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.2">
@@ -21869,7 +21876,7 @@
         <v>1540</v>
       </c>
       <c r="F851" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.2">
@@ -21903,7 +21910,7 @@
         <v>1542</v>
       </c>
       <c r="F853" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.2">
@@ -21937,7 +21944,7 @@
         <v>1544</v>
       </c>
       <c r="F855" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.2">
@@ -21971,7 +21978,7 @@
         <v>1546</v>
       </c>
       <c r="F857" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.2">
@@ -22005,7 +22012,7 @@
         <v>1548</v>
       </c>
       <c r="F859" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.2">
@@ -22039,7 +22046,7 @@
         <v>1550</v>
       </c>
       <c r="F861" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.2">
@@ -22073,7 +22080,7 @@
         <v>1552</v>
       </c>
       <c r="F863" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.2">
@@ -22107,7 +22114,7 @@
         <v>1554</v>
       </c>
       <c r="F865" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.2">
@@ -22141,7 +22148,7 @@
         <v>1556</v>
       </c>
       <c r="F867" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.2">
@@ -22175,7 +22182,7 @@
         <v>1558</v>
       </c>
       <c r="F869" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.2">
@@ -22209,7 +22216,7 @@
         <v>1560</v>
       </c>
       <c r="F871" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.2">
@@ -22243,7 +22250,7 @@
         <v>1562</v>
       </c>
       <c r="F873" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.2">
@@ -22277,7 +22284,7 @@
         <v>1564</v>
       </c>
       <c r="F875" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.2">
@@ -22311,7 +22318,7 @@
         <v>1566</v>
       </c>
       <c r="F877" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.2">
@@ -22345,7 +22352,7 @@
         <v>1568</v>
       </c>
       <c r="F879" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.2">
@@ -22379,7 +22386,7 @@
         <v>1570</v>
       </c>
       <c r="F881" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.2">
@@ -22413,7 +22420,7 @@
         <v>1572</v>
       </c>
       <c r="F883" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.2">
@@ -22447,7 +22454,7 @@
         <v>1574</v>
       </c>
       <c r="F885" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.2">
@@ -22481,7 +22488,7 @@
         <v>1578</v>
       </c>
       <c r="F887" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.2">
@@ -22515,7 +22522,7 @@
         <v>1576</v>
       </c>
       <c r="F889" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.2">
@@ -22549,7 +22556,7 @@
         <v>1580</v>
       </c>
       <c r="F891" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.2">
@@ -22583,7 +22590,7 @@
         <v>1582</v>
       </c>
       <c r="F893" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.2">
@@ -22617,7 +22624,7 @@
         <v>1584</v>
       </c>
       <c r="F895" s="6" t="s">
-        <v>749</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.2">
